--- a/Docs/9.) RM Breakdown per JO Report/RM Breakdown for specific JO Report.xlsx
+++ b/Docs/9.) RM Breakdown per JO Report/RM Breakdown for specific JO Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon\Desktop\LSPI ERP Report Project\GitHub Repo\ERPREPORTS\Docs\9.) RM Breakdown per JO Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD24972-4EF0-4347-AE67-B08FCD5DBA85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DD780A-D0AF-4B10-9F86-654941AFD097}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2700" windowWidth="29040" windowHeight="15840" xr2:uid="{AB645063-45E2-42D4-864B-13CD0856CC32}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="86">
   <si>
     <t>RM Breakdown</t>
   </si>
@@ -284,9 +284,6 @@
   <si>
     <t>Unit Cost</t>
   </si>
-  <si>
-    <t>Actual Cost</t>
-  </si>
 </sst>
 </file>
 
@@ -437,15 +434,178 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Speech Bubble: Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A7DBE0-598B-4375-B78C-BB5EF43AD04D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9858375" y="819150"/>
+          <a:ext cx="2743200" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -117648"/>
+            <a:gd name="adj2" fmla="val 14399"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100"/>
+            <a:t>Ano pong ibig sabihin ng TOTAL JO quantity?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100"/>
+            <a:t>Iba pa po ito sa JO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" baseline="0"/>
+            <a:t> completed quantity?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" baseline="0"/>
+            <a:t>Pare pareho lang po ba ang value nito?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-PH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Speech Bubble: Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDAF167A-A1AB-492B-9F09-F1ECBFE3B7CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="5495925"/>
+          <a:ext cx="2743200" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -163134"/>
+            <a:gd name="adj2" fmla="val 5902"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100"/>
+            <a:t>SF-3DK3002,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" baseline="0"/>
+            <a:t> based po sa actual, tatlong beses po nagissue sa kanya, iba iba po ng source. Dapat po ba magtotal lang sya or talagang dapat ay hiwa hiwalay?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" baseline="0"/>
+            <a:t>Either way po, di po b sya magkakaproblem sa Standard Cost per unit na sampling po?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-PH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1285875</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -806,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F8F22D-1A88-4829-8F0A-533C681DBCCB}">
-  <dimension ref="A1:AJ145"/>
+  <dimension ref="A1:AJ144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +1054,7 @@
         <v>85</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1151,91 +1311,124 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>200</v>
+      </c>
+      <c r="R23">
+        <f>Z23/$C23</f>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" ref="S23:X23" si="0">AA23/$C23</f>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>1.2888919999999999</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>2.8014760000000001</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>-2.4925679999999999</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f>SUM(R23:X23)</f>
+        <v>1.5977999999999999</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>257.77839999999998</v>
+      </c>
+      <c r="AC23">
+        <v>560.29520000000002</v>
+      </c>
+      <c r="AD23">
+        <v>-498.5136</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <f>Z23+AA23+AB23+AC23+AD23+AE23+AF23</f>
+        <v>319.55999999999995</v>
+      </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>200</v>
       </c>
       <c r="R24">
-        <f>Z24/$C24</f>
-        <v>0</v>
+        <f t="shared" ref="R24:R87" si="1">Z24/$C24</f>
+        <v>0.56289999999999996</v>
       </c>
       <c r="S24">
-        <f t="shared" ref="S24:X24" si="0">AA24/$C24</f>
+        <f t="shared" ref="S24:S87" si="2">AA24/$C24</f>
         <v>0</v>
       </c>
       <c r="T24">
-        <f t="shared" si="0"/>
-        <v>1.2888919999999999</v>
+        <f t="shared" ref="T24:T87" si="3">AB24/$C24</f>
+        <v>0</v>
       </c>
       <c r="U24">
-        <f t="shared" si="0"/>
-        <v>2.8014760000000001</v>
+        <f t="shared" ref="U24:U87" si="4">AC24/$C24</f>
+        <v>0</v>
       </c>
       <c r="V24">
-        <f t="shared" si="0"/>
-        <v>-2.4925679999999999</v>
+        <f t="shared" ref="V24:V87" si="5">AD24/$C24</f>
+        <v>0</v>
       </c>
       <c r="W24">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="W24:W87" si="6">AE24/$C24</f>
         <v>0</v>
       </c>
       <c r="X24">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="X24:X87" si="7">AF24/$C24</f>
         <v>0</v>
       </c>
       <c r="Y24">
-        <f>SUM(R24:X24)</f>
-        <v>1.5977999999999999</v>
+        <f t="shared" ref="Y24:Y87" si="8">SUM(R24:X24)</f>
+        <v>0.56289999999999996</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>112.58</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>257.77839999999998</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>560.29520000000002</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>-498.5136</v>
+        <v>0</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -1244,51 +1437,51 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <f>Z24+AA24+AB24+AC24+AD24+AE24+AF24</f>
-        <v>319.55999999999995</v>
+        <f t="shared" ref="AG24:AG87" si="9">Z24+AA24+AB24+AC24+AD24+AE24+AF24</f>
+        <v>112.58</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>200</v>
       </c>
       <c r="R25">
-        <f t="shared" ref="R25:R88" si="1">Z25/$C25</f>
-        <v>0.56289999999999996</v>
+        <f t="shared" si="1"/>
+        <v>9.1818000000000011E-2</v>
       </c>
       <c r="S25">
-        <f t="shared" ref="S25:S88" si="2">AA25/$C25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T25">
-        <f t="shared" ref="T25:T88" si="3">AB25/$C25</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U25">
-        <f t="shared" ref="U25:U88" si="4">AC25/$C25</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V25">
-        <f t="shared" ref="V25:V88" si="5">AD25/$C25</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W25">
-        <f t="shared" ref="W25:W88" si="6">AE25/$C25</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X25">
-        <f t="shared" ref="X25:X88" si="7">AF25/$C25</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y25">
-        <f t="shared" ref="Y25:Y88" si="8">SUM(R25:X25)</f>
-        <v>0.56289999999999996</v>
+        <f t="shared" si="8"/>
+        <v>9.1818000000000011E-2</v>
       </c>
       <c r="Z25">
-        <v>112.58</v>
+        <v>18.363600000000002</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -1309,20 +1502,20 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <f t="shared" ref="AG25:AG88" si="9">Z25+AA25+AB25+AC25+AD25+AE25+AF25</f>
-        <v>112.58</v>
+        <f t="shared" si="9"/>
+        <v>18.363600000000002</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R26">
         <f t="shared" si="1"/>
-        <v>9.1818000000000011E-2</v>
+        <v>0.32512479999999999</v>
       </c>
       <c r="S26">
         <f t="shared" si="2"/>
@@ -1350,10 +1543,10 @@
       </c>
       <c r="Y26">
         <f t="shared" si="8"/>
-        <v>9.1818000000000011E-2</v>
+        <v>0.32512479999999999</v>
       </c>
       <c r="Z26">
-        <v>18.363600000000002</v>
+        <v>130.04991999999999</v>
       </c>
       <c r="AA26">
         <v>0</v>
@@ -1375,23 +1568,23 @@
       </c>
       <c r="AG26">
         <f t="shared" si="9"/>
-        <v>18.363600000000002</v>
+        <v>130.04991999999999</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="R27">
         <f t="shared" si="1"/>
-        <v>0.32512479999999999</v>
+        <v>0.42314999999999997</v>
       </c>
       <c r="S27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.0470249999999999E-2</v>
       </c>
       <c r="T27">
         <f t="shared" si="3"/>
@@ -1415,13 +1608,13 @@
       </c>
       <c r="Y27">
         <f t="shared" si="8"/>
-        <v>0.32512479999999999</v>
+        <v>0.43362024999999998</v>
       </c>
       <c r="Z27">
-        <v>130.04991999999999</v>
+        <v>253.89</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>6.2821499999999997</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -1440,23 +1633,23 @@
       </c>
       <c r="AG27">
         <f t="shared" si="9"/>
-        <v>130.04991999999999</v>
+        <v>260.17214999999999</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="R28">
         <f t="shared" si="1"/>
-        <v>0.42314999999999997</v>
+        <v>2.9456000000000002</v>
       </c>
       <c r="S28">
         <f t="shared" si="2"/>
-        <v>1.0470249999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="T28">
         <f t="shared" si="3"/>
@@ -1480,13 +1673,13 @@
       </c>
       <c r="Y28">
         <f t="shared" si="8"/>
-        <v>0.43362024999999998</v>
+        <v>2.9456000000000002</v>
       </c>
       <c r="Z28">
-        <v>253.89</v>
+        <v>589.12</v>
       </c>
       <c r="AA28">
-        <v>6.2821499999999997</v>
+        <v>0</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -1505,23 +1698,23 @@
       </c>
       <c r="AG28">
         <f t="shared" si="9"/>
-        <v>260.17214999999999</v>
+        <v>589.12</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>38</v>
+      <c r="A29" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="C29">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="R29">
         <f t="shared" si="1"/>
-        <v>2.9456000000000002</v>
+        <v>58.271250746031747</v>
       </c>
       <c r="S29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.1586254444444446</v>
       </c>
       <c r="T29">
         <f t="shared" si="3"/>
@@ -1537,21 +1730,21 @@
       </c>
       <c r="W29">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>13.095105</v>
       </c>
       <c r="X29">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>32.737762507936509</v>
       </c>
       <c r="Y29">
         <f t="shared" si="8"/>
-        <v>2.9456000000000002</v>
+        <v>108.26274369841271</v>
       </c>
       <c r="Z29">
-        <v>589.12</v>
+        <v>3671.0887969999999</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>261.993403</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -1563,30 +1756,30 @@
         <v>0</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>824.99161500000002</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>2062.4790379999999</v>
       </c>
       <c r="AG29">
         <f t="shared" si="9"/>
-        <v>589.12</v>
+        <v>6820.5528529999992</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>39</v>
+      <c r="A30" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C30">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="R30">
         <f t="shared" si="1"/>
-        <v>58.271250746031747</v>
+        <v>16.274999999999999</v>
       </c>
       <c r="S30">
         <f t="shared" si="2"/>
-        <v>4.1586254444444446</v>
+        <v>1.5676079999999999</v>
       </c>
       <c r="T30">
         <f t="shared" si="3"/>
@@ -1602,21 +1795,21 @@
       </c>
       <c r="W30">
         <f t="shared" si="6"/>
-        <v>13.095105</v>
+        <v>0</v>
       </c>
       <c r="X30">
         <f t="shared" si="7"/>
-        <v>32.737762507936509</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <f t="shared" si="8"/>
-        <v>108.26274369841271</v>
+        <v>17.842607999999998</v>
       </c>
       <c r="Z30">
-        <v>3671.0887969999999</v>
+        <v>1285.7249999999999</v>
       </c>
       <c r="AA30">
-        <v>261.993403</v>
+        <v>123.841032</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -1628,14 +1821,14 @@
         <v>0</v>
       </c>
       <c r="AE30">
-        <v>824.99161500000002</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>2062.4790379999999</v>
+        <v>0</v>
       </c>
       <c r="AG30">
         <f t="shared" si="9"/>
-        <v>6820.5528529999992</v>
+        <v>1409.566032</v>
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
@@ -1643,15 +1836,15 @@
         <v>40</v>
       </c>
       <c r="C31">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="R31">
         <f t="shared" si="1"/>
-        <v>16.274999999999999</v>
+        <v>15.834</v>
       </c>
       <c r="S31">
         <f t="shared" si="2"/>
-        <v>1.5676079999999999</v>
+        <v>1.8332605215517241</v>
       </c>
       <c r="T31">
         <f t="shared" si="3"/>
@@ -1675,13 +1868,13 @@
       </c>
       <c r="Y31">
         <f t="shared" si="8"/>
-        <v>17.842607999999998</v>
+        <v>17.667260521551725</v>
       </c>
       <c r="Z31">
-        <v>1285.7249999999999</v>
+        <v>3673.4879999999998</v>
       </c>
       <c r="AA31">
-        <v>123.841032</v>
+        <v>425.316441</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -1700,23 +1893,23 @@
       </c>
       <c r="AG31">
         <f t="shared" si="9"/>
-        <v>1409.566032</v>
+        <v>4098.8044410000002</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32">
-        <v>232</v>
+        <v>15.55</v>
       </c>
       <c r="R32">
         <f t="shared" si="1"/>
-        <v>15.834</v>
+        <v>51.067799999999998</v>
       </c>
       <c r="S32">
         <f t="shared" si="2"/>
-        <v>1.8332605215517241</v>
+        <v>0.28795987138263668</v>
       </c>
       <c r="T32">
         <f t="shared" si="3"/>
@@ -1740,13 +1933,13 @@
       </c>
       <c r="Y32">
         <f t="shared" si="8"/>
-        <v>17.667260521551725</v>
+        <v>51.355759871382638</v>
       </c>
       <c r="Z32">
-        <v>3673.4879999999998</v>
+        <v>794.10428999999999</v>
       </c>
       <c r="AA32">
-        <v>425.316441</v>
+        <v>4.4777760000000004</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -1765,23 +1958,23 @@
       </c>
       <c r="AG32">
         <f t="shared" si="9"/>
-        <v>4098.8044410000002</v>
+        <v>798.58206599999994</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>41</v>
+      <c r="A33" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C33">
-        <v>15.55</v>
+        <v>10</v>
       </c>
       <c r="R33">
         <f t="shared" si="1"/>
-        <v>51.067799999999998</v>
+        <v>39.967293400000003</v>
       </c>
       <c r="S33">
         <f t="shared" si="2"/>
-        <v>0.28795987138263668</v>
+        <v>2.4531622999999998</v>
       </c>
       <c r="T33">
         <f t="shared" si="3"/>
@@ -1797,21 +1990,21 @@
       </c>
       <c r="W33">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.1539289999999998</v>
       </c>
       <c r="X33">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20.384822500000002</v>
       </c>
       <c r="Y33">
         <f t="shared" si="8"/>
-        <v>51.355759871382638</v>
+        <v>70.959207200000009</v>
       </c>
       <c r="Z33">
-        <v>794.10428999999999</v>
+        <v>399.672934</v>
       </c>
       <c r="AA33">
-        <v>4.4777760000000004</v>
+        <v>24.531623</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -1823,30 +2016,30 @@
         <v>0</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>81.539289999999994</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>203.84822500000001</v>
       </c>
       <c r="AG33">
         <f t="shared" si="9"/>
-        <v>798.58206599999994</v>
+        <v>709.59207200000003</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>42</v>
+      <c r="A34" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="R34">
         <f t="shared" si="1"/>
-        <v>39.967293400000003</v>
+        <v>0.186366</v>
       </c>
       <c r="S34">
         <f t="shared" si="2"/>
-        <v>2.4531622999999998</v>
+        <v>0</v>
       </c>
       <c r="T34">
         <f t="shared" si="3"/>
@@ -1862,21 +2055,21 @@
       </c>
       <c r="W34">
         <f t="shared" si="6"/>
-        <v>8.1539289999999998</v>
+        <v>0</v>
       </c>
       <c r="X34">
         <f t="shared" si="7"/>
-        <v>20.384822500000002</v>
+        <v>0</v>
       </c>
       <c r="Y34">
         <f t="shared" si="8"/>
-        <v>70.959207200000009</v>
+        <v>0.186366</v>
       </c>
       <c r="Z34">
-        <v>399.672934</v>
+        <v>111.81959999999999</v>
       </c>
       <c r="AA34">
-        <v>24.531623</v>
+        <v>0</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -1888,26 +2081,26 @@
         <v>0</v>
       </c>
       <c r="AE34">
-        <v>81.539289999999994</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>203.84822500000001</v>
+        <v>0</v>
       </c>
       <c r="AG34">
         <f t="shared" si="9"/>
-        <v>709.59207200000003</v>
+        <v>111.81959999999999</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35">
         <v>600</v>
       </c>
       <c r="R35">
         <f t="shared" si="1"/>
-        <v>0.186366</v>
+        <v>0.33642</v>
       </c>
       <c r="S35">
         <f t="shared" si="2"/>
@@ -1935,10 +2128,10 @@
       </c>
       <c r="Y35">
         <f t="shared" si="8"/>
-        <v>0.186366</v>
+        <v>0.33642</v>
       </c>
       <c r="Z35">
-        <v>111.81959999999999</v>
+        <v>201.852</v>
       </c>
       <c r="AA35">
         <v>0</v>
@@ -1960,19 +2153,19 @@
       </c>
       <c r="AG35">
         <f t="shared" si="9"/>
-        <v>111.81959999999999</v>
+        <v>201.852</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36">
         <v>600</v>
       </c>
       <c r="R36">
         <f t="shared" si="1"/>
-        <v>0.33642</v>
+        <v>1.28104</v>
       </c>
       <c r="S36">
         <f t="shared" si="2"/>
@@ -2000,10 +2193,10 @@
       </c>
       <c r="Y36">
         <f t="shared" si="8"/>
-        <v>0.33642</v>
+        <v>1.28104</v>
       </c>
       <c r="Z36">
-        <v>201.852</v>
+        <v>768.62400000000002</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -2025,23 +2218,23 @@
       </c>
       <c r="AG36">
         <f t="shared" si="9"/>
-        <v>201.852</v>
+        <v>768.62400000000002</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37">
         <v>600</v>
       </c>
       <c r="R37">
         <f t="shared" si="1"/>
-        <v>1.28104</v>
+        <v>0.12864</v>
       </c>
       <c r="S37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.46864E-2</v>
       </c>
       <c r="T37">
         <f t="shared" si="3"/>
@@ -2065,13 +2258,13 @@
       </c>
       <c r="Y37">
         <f t="shared" si="8"/>
-        <v>1.28104</v>
+        <v>0.14332639999999999</v>
       </c>
       <c r="Z37">
-        <v>768.62400000000002</v>
+        <v>77.183999999999997</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>8.8118400000000001</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -2090,23 +2283,23 @@
       </c>
       <c r="AG37">
         <f t="shared" si="9"/>
-        <v>768.62400000000002</v>
+        <v>85.995840000000001</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="R38">
         <f t="shared" si="1"/>
-        <v>0.12864</v>
+        <v>4.7424000000000001E-2</v>
       </c>
       <c r="S38">
         <f t="shared" si="2"/>
-        <v>1.46864E-2</v>
+        <v>0</v>
       </c>
       <c r="T38">
         <f t="shared" si="3"/>
@@ -2130,13 +2323,13 @@
       </c>
       <c r="Y38">
         <f t="shared" si="8"/>
-        <v>0.14332639999999999</v>
+        <v>4.7424000000000001E-2</v>
       </c>
       <c r="Z38">
-        <v>77.183999999999997</v>
+        <v>14.2272</v>
       </c>
       <c r="AA38">
-        <v>8.8118400000000001</v>
+        <v>0</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -2155,23 +2348,23 @@
       </c>
       <c r="AG38">
         <f t="shared" si="9"/>
-        <v>85.995840000000001</v>
+        <v>14.2272</v>
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39">
         <v>300</v>
       </c>
       <c r="R39">
         <f t="shared" si="1"/>
-        <v>4.7424000000000001E-2</v>
+        <v>0.21076</v>
       </c>
       <c r="S39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.9107080000000004E-2</v>
       </c>
       <c r="T39">
         <f t="shared" si="3"/>
@@ -2195,13 +2388,13 @@
       </c>
       <c r="Y39">
         <f t="shared" si="8"/>
-        <v>4.7424000000000001E-2</v>
+        <v>0.25986708000000003</v>
       </c>
       <c r="Z39">
-        <v>14.2272</v>
+        <v>63.228000000000002</v>
       </c>
       <c r="AA39">
-        <v>0</v>
+        <v>14.732124000000001</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -2220,23 +2413,23 @@
       </c>
       <c r="AG39">
         <f t="shared" si="9"/>
-        <v>14.2272</v>
+        <v>77.960124000000008</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40">
         <v>300</v>
       </c>
       <c r="R40">
         <f t="shared" si="1"/>
-        <v>0.21076</v>
+        <v>0.99063600000000007</v>
       </c>
       <c r="S40">
         <f t="shared" si="2"/>
-        <v>4.9107080000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="T40">
         <f t="shared" si="3"/>
@@ -2260,13 +2453,13 @@
       </c>
       <c r="Y40">
         <f t="shared" si="8"/>
-        <v>0.25986708000000003</v>
+        <v>0.99063600000000007</v>
       </c>
       <c r="Z40">
-        <v>63.228000000000002</v>
+        <v>297.19080000000002</v>
       </c>
       <c r="AA40">
-        <v>14.732124000000001</v>
+        <v>0</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -2285,23 +2478,23 @@
       </c>
       <c r="AG40">
         <f t="shared" si="9"/>
-        <v>77.960124000000008</v>
+        <v>297.19080000000002</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41">
         <v>300</v>
       </c>
       <c r="R41">
         <f t="shared" si="1"/>
-        <v>0.99063600000000007</v>
+        <v>3.6644999999999999</v>
       </c>
       <c r="S41">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.51994019999999996</v>
       </c>
       <c r="T41">
         <f t="shared" si="3"/>
@@ -2325,13 +2518,13 @@
       </c>
       <c r="Y41">
         <f t="shared" si="8"/>
-        <v>0.99063600000000007</v>
+        <v>4.1844402000000001</v>
       </c>
       <c r="Z41">
-        <v>297.19080000000002</v>
+        <v>1099.3499999999999</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>155.98205999999999</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -2350,23 +2543,23 @@
       </c>
       <c r="AG41">
         <f t="shared" si="9"/>
-        <v>297.19080000000002</v>
+        <v>1255.33206</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42">
         <v>300</v>
       </c>
       <c r="R42">
         <f t="shared" si="1"/>
-        <v>3.6644999999999999</v>
+        <v>31.189041400000001</v>
       </c>
       <c r="S42">
         <f t="shared" si="2"/>
-        <v>0.51994019999999996</v>
+        <v>1.8547421899999998</v>
       </c>
       <c r="T42">
         <f t="shared" si="3"/>
@@ -2382,21 +2575,21 @@
       </c>
       <c r="W42">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.8983999999999999</v>
       </c>
       <c r="X42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.7459999999999996</v>
       </c>
       <c r="Y42">
         <f t="shared" si="8"/>
-        <v>4.1844402000000001</v>
+        <v>39.688183590000008</v>
       </c>
       <c r="Z42">
-        <v>1099.3499999999999</v>
+        <v>9356.7124199999998</v>
       </c>
       <c r="AA42">
-        <v>155.98205999999999</v>
+        <v>556.42265699999996</v>
       </c>
       <c r="AB42">
         <v>0</v>
@@ -2408,30 +2601,30 @@
         <v>0</v>
       </c>
       <c r="AE42">
-        <v>0</v>
+        <v>569.52</v>
       </c>
       <c r="AF42">
-        <v>0</v>
+        <v>1423.8</v>
       </c>
       <c r="AG42">
         <f t="shared" si="9"/>
-        <v>1255.33206</v>
+        <v>11906.455076999999</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>51</v>
+      <c r="A43" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C43">
-        <v>300</v>
+        <v>716</v>
       </c>
       <c r="R43">
         <f t="shared" si="1"/>
-        <v>31.189041400000001</v>
+        <v>8.4489999999999998</v>
       </c>
       <c r="S43">
         <f t="shared" si="2"/>
-        <v>1.8547421899999998</v>
+        <v>1.6399508999999999</v>
       </c>
       <c r="T43">
         <f t="shared" si="3"/>
@@ -2447,21 +2640,21 @@
       </c>
       <c r="W43">
         <f t="shared" si="6"/>
-        <v>1.8983999999999999</v>
+        <v>0</v>
       </c>
       <c r="X43">
         <f t="shared" si="7"/>
-        <v>4.7459999999999996</v>
+        <v>0</v>
       </c>
       <c r="Y43">
         <f t="shared" si="8"/>
-        <v>39.688183590000008</v>
+        <v>10.0889509</v>
       </c>
       <c r="Z43">
-        <v>9356.7124199999998</v>
+        <v>6049.4840000000004</v>
       </c>
       <c r="AA43">
-        <v>556.42265699999996</v>
+        <v>1174.2048444</v>
       </c>
       <c r="AB43">
         <v>0</v>
@@ -2473,14 +2666,14 @@
         <v>0</v>
       </c>
       <c r="AE43">
-        <v>569.52</v>
+        <v>0</v>
       </c>
       <c r="AF43">
-        <v>1423.8</v>
+        <v>0</v>
       </c>
       <c r="AG43">
         <f t="shared" si="9"/>
-        <v>11906.455076999999</v>
+        <v>7223.6888444000006</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
@@ -2488,15 +2681,15 @@
         <v>52</v>
       </c>
       <c r="C44">
-        <v>716</v>
+        <v>1284</v>
       </c>
       <c r="R44">
         <f t="shared" si="1"/>
-        <v>8.4489999999999998</v>
+        <v>9.0541999999999998</v>
       </c>
       <c r="S44">
         <f t="shared" si="2"/>
-        <v>1.6399508999999999</v>
+        <v>1.4399373600000001</v>
       </c>
       <c r="T44">
         <f t="shared" si="3"/>
@@ -2520,13 +2713,13 @@
       </c>
       <c r="Y44">
         <f t="shared" si="8"/>
-        <v>10.0889509</v>
+        <v>10.49413736</v>
       </c>
       <c r="Z44">
-        <v>6049.4840000000004</v>
+        <v>11625.5928</v>
       </c>
       <c r="AA44">
-        <v>1174.2048444</v>
+        <v>1848.87957024</v>
       </c>
       <c r="AB44">
         <v>0</v>
@@ -2545,23 +2738,23 @@
       </c>
       <c r="AG44">
         <f t="shared" si="9"/>
-        <v>7223.6888444000006</v>
+        <v>13474.472370240001</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45">
-        <v>1284</v>
+        <v>0.52</v>
       </c>
       <c r="R45">
         <f t="shared" si="1"/>
-        <v>9.0541999999999998</v>
+        <v>2140.7999999999997</v>
       </c>
       <c r="S45">
         <f t="shared" si="2"/>
-        <v>1.4399373600000001</v>
+        <v>1319.9999395192308</v>
       </c>
       <c r="T45">
         <f t="shared" si="3"/>
@@ -2585,13 +2778,13 @@
       </c>
       <c r="Y45">
         <f t="shared" si="8"/>
-        <v>10.49413736</v>
+        <v>3460.7999395192305</v>
       </c>
       <c r="Z45">
-        <v>11625.5928</v>
+        <v>1113.2159999999999</v>
       </c>
       <c r="AA45">
-        <v>1848.87957024</v>
+        <v>686.39996855000004</v>
       </c>
       <c r="AB45">
         <v>0</v>
@@ -2610,23 +2803,23 @@
       </c>
       <c r="AG45">
         <f t="shared" si="9"/>
-        <v>13474.472370240001</v>
+        <v>1799.6159685499999</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46">
-        <v>0.52</v>
+        <v>20</v>
       </c>
       <c r="R46">
         <f t="shared" si="1"/>
-        <v>2140.7999999999997</v>
+        <v>919.53750000000002</v>
       </c>
       <c r="S46">
         <f t="shared" si="2"/>
-        <v>1319.9999395192308</v>
+        <v>0</v>
       </c>
       <c r="T46">
         <f t="shared" si="3"/>
@@ -2650,13 +2843,13 @@
       </c>
       <c r="Y46">
         <f t="shared" si="8"/>
-        <v>3460.7999395192305</v>
+        <v>919.53750000000002</v>
       </c>
       <c r="Z46">
-        <v>1113.2159999999999</v>
+        <v>18390.75</v>
       </c>
       <c r="AA46">
-        <v>686.39996855000004</v>
+        <v>0</v>
       </c>
       <c r="AB46">
         <v>0</v>
@@ -2675,19 +2868,19 @@
       </c>
       <c r="AG46">
         <f t="shared" si="9"/>
-        <v>1799.6159685499999</v>
+        <v>18390.75</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R47">
         <f t="shared" si="1"/>
-        <v>919.53750000000002</v>
+        <v>1391.52</v>
       </c>
       <c r="S47">
         <f t="shared" si="2"/>
@@ -2715,10 +2908,10 @@
       </c>
       <c r="Y47">
         <f t="shared" si="8"/>
-        <v>919.53750000000002</v>
+        <v>1391.52</v>
       </c>
       <c r="Z47">
-        <v>18390.75</v>
+        <v>2783.04</v>
       </c>
       <c r="AA47">
         <v>0</v>
@@ -2740,19 +2933,19 @@
       </c>
       <c r="AG47">
         <f t="shared" si="9"/>
-        <v>18390.75</v>
+        <v>2783.04</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="R48">
         <f t="shared" si="1"/>
-        <v>1391.52</v>
+        <v>11.208</v>
       </c>
       <c r="S48">
         <f t="shared" si="2"/>
@@ -2780,10 +2973,10 @@
       </c>
       <c r="Y48">
         <f t="shared" si="8"/>
-        <v>1391.52</v>
+        <v>11.208</v>
       </c>
       <c r="Z48">
-        <v>2783.04</v>
+        <v>22416</v>
       </c>
       <c r="AA48">
         <v>0</v>
@@ -2805,23 +2998,23 @@
       </c>
       <c r="AG48">
         <f t="shared" si="9"/>
-        <v>2783.04</v>
+        <v>22416</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>56</v>
+      <c r="A49" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C49">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="R49">
         <f t="shared" si="1"/>
-        <v>11.208</v>
+        <v>39.672912500000002</v>
       </c>
       <c r="S49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.1678320000000002</v>
       </c>
       <c r="T49">
         <f t="shared" si="3"/>
@@ -2837,21 +3030,21 @@
       </c>
       <c r="W49">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.1539289999999998</v>
       </c>
       <c r="X49">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20.384822499999999</v>
       </c>
       <c r="Y49">
         <f t="shared" si="8"/>
-        <v>11.208</v>
+        <v>70.379495999999989</v>
       </c>
       <c r="Z49">
-        <v>22416</v>
+        <v>79.345825000000005</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>4.3356640000000004</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -2863,30 +3056,30 @@
         <v>0</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>16.307858</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>40.769644999999997</v>
       </c>
       <c r="AG49">
         <f t="shared" si="9"/>
-        <v>22416</v>
+        <v>140.75899199999998</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>42</v>
+      <c r="A50" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>596</v>
       </c>
       <c r="R50">
         <f t="shared" si="1"/>
-        <v>39.672912500000002</v>
+        <v>0.186366</v>
       </c>
       <c r="S50">
         <f t="shared" si="2"/>
-        <v>2.1678320000000002</v>
+        <v>0</v>
       </c>
       <c r="T50">
         <f t="shared" si="3"/>
@@ -2902,21 +3095,21 @@
       </c>
       <c r="W50">
         <f t="shared" si="6"/>
-        <v>8.1539289999999998</v>
+        <v>0</v>
       </c>
       <c r="X50">
         <f t="shared" si="7"/>
-        <v>20.384822499999999</v>
+        <v>0</v>
       </c>
       <c r="Y50">
         <f t="shared" si="8"/>
-        <v>70.379495999999989</v>
+        <v>0.186366</v>
       </c>
       <c r="Z50">
-        <v>79.345825000000005</v>
+        <v>111.074136</v>
       </c>
       <c r="AA50">
-        <v>4.3356640000000004</v>
+        <v>0</v>
       </c>
       <c r="AB50">
         <v>0</v>
@@ -2928,30 +3121,30 @@
         <v>0</v>
       </c>
       <c r="AE50">
-        <v>16.307858</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>40.769644999999997</v>
+        <v>0</v>
       </c>
       <c r="AG50">
         <f t="shared" si="9"/>
-        <v>140.75899199999998</v>
+        <v>111.074136</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C51">
-        <v>596</v>
+        <v>298</v>
       </c>
       <c r="R51">
         <f t="shared" si="1"/>
-        <v>0.186366</v>
+        <v>30.978443000000002</v>
       </c>
       <c r="S51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.547404010067114</v>
       </c>
       <c r="T51">
         <f t="shared" si="3"/>
@@ -2967,21 +3160,21 @@
       </c>
       <c r="W51">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.8984000000000001</v>
       </c>
       <c r="X51">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.7459999999999996</v>
       </c>
       <c r="Y51">
         <f t="shared" si="8"/>
-        <v>0.186366</v>
+        <v>39.170247010067122</v>
       </c>
       <c r="Z51">
-        <v>111.074136</v>
+        <v>9231.5760140000002</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>461.126395</v>
       </c>
       <c r="AB51">
         <v>0</v>
@@ -2993,30 +3186,30 @@
         <v>0</v>
       </c>
       <c r="AE51">
-        <v>0</v>
+        <v>565.72320000000002</v>
       </c>
       <c r="AF51">
-        <v>0</v>
+        <v>1414.308</v>
       </c>
       <c r="AG51">
         <f t="shared" si="9"/>
-        <v>111.074136</v>
+        <v>11672.733608999999</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>51</v>
+      <c r="A52" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C52">
-        <v>298</v>
+        <v>1500</v>
       </c>
       <c r="R52">
         <f t="shared" si="1"/>
-        <v>30.978443000000002</v>
+        <v>9.0541999999999998</v>
       </c>
       <c r="S52">
         <f t="shared" si="2"/>
-        <v>1.547404010067114</v>
+        <v>1.4399373599999998</v>
       </c>
       <c r="T52">
         <f t="shared" si="3"/>
@@ -3032,21 +3225,21 @@
       </c>
       <c r="W52">
         <f t="shared" si="6"/>
-        <v>1.8984000000000001</v>
+        <v>0</v>
       </c>
       <c r="X52">
         <f t="shared" si="7"/>
-        <v>4.7459999999999996</v>
+        <v>0</v>
       </c>
       <c r="Y52">
         <f t="shared" si="8"/>
-        <v>39.170247010067122</v>
+        <v>10.49413736</v>
       </c>
       <c r="Z52">
-        <v>9231.5760140000002</v>
+        <v>13581.3</v>
       </c>
       <c r="AA52">
-        <v>461.126395</v>
+        <v>2159.9060399999998</v>
       </c>
       <c r="AB52">
         <v>0</v>
@@ -3058,30 +3251,30 @@
         <v>0</v>
       </c>
       <c r="AE52">
-        <v>565.72320000000002</v>
+        <v>0</v>
       </c>
       <c r="AF52">
-        <v>1414.308</v>
+        <v>0</v>
       </c>
       <c r="AG52">
         <f t="shared" si="9"/>
-        <v>11672.733608999999</v>
+        <v>15741.206039999999</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53">
-        <v>1500</v>
+        <v>0.39</v>
       </c>
       <c r="R53">
         <f t="shared" si="1"/>
-        <v>9.0541999999999998</v>
+        <v>2108.8000000000002</v>
       </c>
       <c r="S53">
         <f t="shared" si="2"/>
-        <v>1.4399373599999998</v>
+        <v>413.33328792307691</v>
       </c>
       <c r="T53">
         <f t="shared" si="3"/>
@@ -3105,13 +3298,13 @@
       </c>
       <c r="Y53">
         <f t="shared" si="8"/>
-        <v>10.49413736</v>
+        <v>2522.1332879230772</v>
       </c>
       <c r="Z53">
-        <v>13581.3</v>
+        <v>822.43200000000002</v>
       </c>
       <c r="AA53">
-        <v>2159.9060399999998</v>
+        <v>161.19998229000001</v>
       </c>
       <c r="AB53">
         <v>0</v>
@@ -3130,23 +3323,23 @@
       </c>
       <c r="AG53">
         <f t="shared" si="9"/>
-        <v>15741.206039999999</v>
+        <v>983.63198229</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54">
-        <v>0.39</v>
+        <v>15</v>
       </c>
       <c r="R54">
         <f t="shared" si="1"/>
-        <v>2108.8000000000002</v>
+        <v>881.56949999999995</v>
       </c>
       <c r="S54">
         <f t="shared" si="2"/>
-        <v>413.33328792307691</v>
+        <v>0</v>
       </c>
       <c r="T54">
         <f t="shared" si="3"/>
@@ -3170,13 +3363,13 @@
       </c>
       <c r="Y54">
         <f t="shared" si="8"/>
-        <v>2522.1332879230772</v>
+        <v>881.56949999999995</v>
       </c>
       <c r="Z54">
-        <v>822.43200000000002</v>
+        <v>13223.5425</v>
       </c>
       <c r="AA54">
-        <v>161.19998229000001</v>
+        <v>0</v>
       </c>
       <c r="AB54">
         <v>0</v>
@@ -3195,19 +3388,19 @@
       </c>
       <c r="AG54">
         <f t="shared" si="9"/>
-        <v>983.63198229</v>
+        <v>13223.5425</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="R55">
         <f t="shared" si="1"/>
-        <v>881.56949999999995</v>
+        <v>1352.26</v>
       </c>
       <c r="S55">
         <f t="shared" si="2"/>
@@ -3235,10 +3428,10 @@
       </c>
       <c r="Y55">
         <f t="shared" si="8"/>
-        <v>881.56949999999995</v>
+        <v>1352.26</v>
       </c>
       <c r="Z55">
-        <v>13223.5425</v>
+        <v>2028.39</v>
       </c>
       <c r="AA55">
         <v>0</v>
@@ -3260,19 +3453,19 @@
       </c>
       <c r="AG55">
         <f t="shared" si="9"/>
-        <v>13223.5425</v>
+        <v>2028.39</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56">
-        <v>1.5</v>
+        <v>1500</v>
       </c>
       <c r="R56">
         <f t="shared" si="1"/>
-        <v>1352.26</v>
+        <v>11.208</v>
       </c>
       <c r="S56">
         <f t="shared" si="2"/>
@@ -3300,10 +3493,10 @@
       </c>
       <c r="Y56">
         <f t="shared" si="8"/>
-        <v>1352.26</v>
+        <v>11.208</v>
       </c>
       <c r="Z56">
-        <v>2028.39</v>
+        <v>16812</v>
       </c>
       <c r="AA56">
         <v>0</v>
@@ -3325,19 +3518,19 @@
       </c>
       <c r="AG56">
         <f t="shared" si="9"/>
-        <v>2028.39</v>
+        <v>16812</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>56</v>
+      <c r="A57" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C57">
-        <v>1500</v>
+        <v>596</v>
       </c>
       <c r="R57">
         <f t="shared" si="1"/>
-        <v>11.208</v>
+        <v>0.32980500000000001</v>
       </c>
       <c r="S57">
         <f t="shared" si="2"/>
@@ -3365,10 +3558,10 @@
       </c>
       <c r="Y57">
         <f t="shared" si="8"/>
-        <v>11.208</v>
+        <v>0.32980500000000001</v>
       </c>
       <c r="Z57">
-        <v>16812</v>
+        <v>196.56378000000001</v>
       </c>
       <c r="AA57">
         <v>0</v>
@@ -3390,19 +3583,19 @@
       </c>
       <c r="AG57">
         <f t="shared" si="9"/>
-        <v>16812</v>
+        <v>196.56378000000001</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C58">
         <v>596</v>
       </c>
       <c r="R58">
         <f t="shared" si="1"/>
-        <v>0.32980500000000001</v>
+        <v>1.2454289999999999</v>
       </c>
       <c r="S58">
         <f t="shared" si="2"/>
@@ -3430,10 +3623,10 @@
       </c>
       <c r="Y58">
         <f t="shared" si="8"/>
-        <v>0.32980500000000001</v>
+        <v>1.2454289999999999</v>
       </c>
       <c r="Z58">
-        <v>196.56378000000001</v>
+        <v>742.27568399999996</v>
       </c>
       <c r="AA58">
         <v>0</v>
@@ -3455,23 +3648,23 @@
       </c>
       <c r="AG58">
         <f t="shared" si="9"/>
-        <v>196.56378000000001</v>
+        <v>742.27568399999996</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C59">
         <v>596</v>
       </c>
       <c r="R59">
         <f t="shared" si="1"/>
-        <v>1.2454289999999999</v>
+        <v>0.12506400000000001</v>
       </c>
       <c r="S59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.5757701342281875E-3</v>
       </c>
       <c r="T59">
         <f t="shared" si="3"/>
@@ -3495,13 +3688,13 @@
       </c>
       <c r="Y59">
         <f t="shared" si="8"/>
-        <v>1.2454289999999999</v>
+        <v>0.1306397701342282</v>
       </c>
       <c r="Z59">
-        <v>742.27568399999996</v>
+        <v>74.538144000000003</v>
       </c>
       <c r="AA59">
-        <v>0</v>
+        <v>3.323159</v>
       </c>
       <c r="AB59">
         <v>0</v>
@@ -3520,23 +3713,23 @@
       </c>
       <c r="AG59">
         <f t="shared" si="9"/>
-        <v>742.27568399999996</v>
+        <v>77.861303000000007</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C60">
-        <v>596</v>
+        <v>250</v>
       </c>
       <c r="R60">
         <f t="shared" si="1"/>
-        <v>0.12506400000000001</v>
+        <v>4.7424000000000001E-2</v>
       </c>
       <c r="S60">
         <f t="shared" si="2"/>
-        <v>5.5757701342281875E-3</v>
+        <v>0</v>
       </c>
       <c r="T60">
         <f t="shared" si="3"/>
@@ -3560,13 +3753,13 @@
       </c>
       <c r="Y60">
         <f t="shared" si="8"/>
-        <v>0.1306397701342282</v>
+        <v>4.7424000000000001E-2</v>
       </c>
       <c r="Z60">
-        <v>74.538144000000003</v>
+        <v>11.856</v>
       </c>
       <c r="AA60">
-        <v>3.323159</v>
+        <v>0</v>
       </c>
       <c r="AB60">
         <v>0</v>
@@ -3585,7 +3778,7 @@
       </c>
       <c r="AG60">
         <f t="shared" si="9"/>
-        <v>77.861303000000007</v>
+        <v>11.856</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
@@ -3593,15 +3786,15 @@
         <v>47</v>
       </c>
       <c r="C61">
-        <v>250</v>
+        <v>48</v>
       </c>
       <c r="R61">
         <f t="shared" si="1"/>
-        <v>4.7424000000000001E-2</v>
+        <v>0.15834000000000001</v>
       </c>
       <c r="S61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.24975495833333336</v>
       </c>
       <c r="T61">
         <f t="shared" si="3"/>
@@ -3625,13 +3818,13 @@
       </c>
       <c r="Y61">
         <f t="shared" si="8"/>
-        <v>4.7424000000000001E-2</v>
+        <v>0.40809495833333337</v>
       </c>
       <c r="Z61">
-        <v>11.856</v>
+        <v>7.60032</v>
       </c>
       <c r="AA61">
-        <v>0</v>
+        <v>11.988238000000001</v>
       </c>
       <c r="AB61">
         <v>0</v>
@@ -3650,23 +3843,23 @@
       </c>
       <c r="AG61">
         <f t="shared" si="9"/>
-        <v>11.856</v>
+        <v>19.588557999999999</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C62">
-        <v>48</v>
+        <v>298</v>
       </c>
       <c r="R62">
         <f t="shared" si="1"/>
-        <v>0.15834000000000001</v>
+        <v>0.21076</v>
       </c>
       <c r="S62">
         <f t="shared" si="2"/>
-        <v>0.24975495833333336</v>
+        <v>4.9107080536912755E-2</v>
       </c>
       <c r="T62">
         <f t="shared" si="3"/>
@@ -3690,13 +3883,13 @@
       </c>
       <c r="Y62">
         <f t="shared" si="8"/>
-        <v>0.40809495833333337</v>
+        <v>0.25986708053691276</v>
       </c>
       <c r="Z62">
-        <v>7.60032</v>
+        <v>62.806480000000001</v>
       </c>
       <c r="AA62">
-        <v>11.988238000000001</v>
+        <v>14.63391</v>
       </c>
       <c r="AB62">
         <v>0</v>
@@ -3715,23 +3908,23 @@
       </c>
       <c r="AG62">
         <f t="shared" si="9"/>
-        <v>19.588557999999999</v>
+        <v>77.440390000000008</v>
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C63">
         <v>298</v>
       </c>
       <c r="R63">
         <f t="shared" si="1"/>
-        <v>0.21076</v>
+        <v>0.98059199999999991</v>
       </c>
       <c r="S63">
         <f t="shared" si="2"/>
-        <v>4.9107080536912755E-2</v>
+        <v>0</v>
       </c>
       <c r="T63">
         <f t="shared" si="3"/>
@@ -3755,13 +3948,13 @@
       </c>
       <c r="Y63">
         <f t="shared" si="8"/>
-        <v>0.25986708053691276</v>
+        <v>0.98059199999999991</v>
       </c>
       <c r="Z63">
-        <v>62.806480000000001</v>
+        <v>292.21641599999998</v>
       </c>
       <c r="AA63">
-        <v>14.63391</v>
+        <v>0</v>
       </c>
       <c r="AB63">
         <v>0</v>
@@ -3780,23 +3973,23 @@
       </c>
       <c r="AG63">
         <f t="shared" si="9"/>
-        <v>77.440390000000008</v>
+        <v>292.21641599999998</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C64">
         <v>298</v>
       </c>
       <c r="R64">
         <f t="shared" si="1"/>
-        <v>0.98059199999999991</v>
+        <v>3.6644999999999999</v>
       </c>
       <c r="S64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.51994020134228192</v>
       </c>
       <c r="T64">
         <f t="shared" si="3"/>
@@ -3820,13 +4013,13 @@
       </c>
       <c r="Y64">
         <f t="shared" si="8"/>
-        <v>0.98059199999999991</v>
+        <v>4.1844402013422819</v>
       </c>
       <c r="Z64">
-        <v>292.21641599999998</v>
+        <v>1092.021</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>154.94218000000001</v>
       </c>
       <c r="AB64">
         <v>0</v>
@@ -3845,23 +4038,23 @@
       </c>
       <c r="AG64">
         <f t="shared" si="9"/>
-        <v>292.21641599999998</v>
+        <v>1246.96318</v>
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>50</v>
+      <c r="A65" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C65">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R65">
         <f t="shared" si="1"/>
-        <v>3.6644999999999999</v>
+        <v>39.765962999999999</v>
       </c>
       <c r="S65">
         <f t="shared" si="2"/>
-        <v>0.51994020134228192</v>
+        <v>2.3773577892976587</v>
       </c>
       <c r="T65">
         <f t="shared" si="3"/>
@@ -3877,21 +4070,21 @@
       </c>
       <c r="W65">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.1539289999999998</v>
       </c>
       <c r="X65">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20.38482250167224</v>
       </c>
       <c r="Y65">
         <f t="shared" si="8"/>
-        <v>4.1844402013422819</v>
+        <v>70.682072290969899</v>
       </c>
       <c r="Z65">
-        <v>1092.021</v>
+        <v>11890.022937</v>
       </c>
       <c r="AA65">
-        <v>154.94218000000001</v>
+        <v>710.82997899999998</v>
       </c>
       <c r="AB65">
         <v>0</v>
@@ -3903,30 +4096,30 @@
         <v>0</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>2438.0247709999999</v>
       </c>
       <c r="AF65">
-        <v>0</v>
+        <v>6095.0619280000001</v>
       </c>
       <c r="AG65">
         <f t="shared" si="9"/>
-        <v>1246.96318</v>
+        <v>21133.939614999999</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>42</v>
+      <c r="A66" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C66">
-        <v>299</v>
+        <v>600</v>
       </c>
       <c r="R66">
         <f t="shared" si="1"/>
-        <v>39.765962999999999</v>
+        <v>0.186366</v>
       </c>
       <c r="S66">
         <f t="shared" si="2"/>
-        <v>2.3773577892976587</v>
+        <v>0</v>
       </c>
       <c r="T66">
         <f t="shared" si="3"/>
@@ -3942,21 +4135,21 @@
       </c>
       <c r="W66">
         <f t="shared" si="6"/>
-        <v>8.1539289999999998</v>
+        <v>0</v>
       </c>
       <c r="X66">
         <f t="shared" si="7"/>
-        <v>20.38482250167224</v>
+        <v>0</v>
       </c>
       <c r="Y66">
         <f t="shared" si="8"/>
-        <v>70.682072290969899</v>
+        <v>0.186366</v>
       </c>
       <c r="Z66">
-        <v>11890.022937</v>
+        <v>111.81959999999999</v>
       </c>
       <c r="AA66">
-        <v>710.82997899999998</v>
+        <v>0</v>
       </c>
       <c r="AB66">
         <v>0</v>
@@ -3968,26 +4161,26 @@
         <v>0</v>
       </c>
       <c r="AE66">
-        <v>2438.0247709999999</v>
+        <v>0</v>
       </c>
       <c r="AF66">
-        <v>6095.0619280000001</v>
+        <v>0</v>
       </c>
       <c r="AG66">
         <f t="shared" si="9"/>
-        <v>21133.939614999999</v>
+        <v>111.81959999999999</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C67">
         <v>600</v>
       </c>
       <c r="R67">
         <f t="shared" si="1"/>
-        <v>0.186366</v>
+        <v>0.32980500000000001</v>
       </c>
       <c r="S67">
         <f t="shared" si="2"/>
@@ -4015,10 +4208,10 @@
       </c>
       <c r="Y67">
         <f t="shared" si="8"/>
-        <v>0.186366</v>
+        <v>0.32980500000000001</v>
       </c>
       <c r="Z67">
-        <v>111.81959999999999</v>
+        <v>197.88300000000001</v>
       </c>
       <c r="AA67">
         <v>0</v>
@@ -4040,19 +4233,19 @@
       </c>
       <c r="AG67">
         <f t="shared" si="9"/>
-        <v>111.81959999999999</v>
+        <v>197.88300000000001</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C68">
         <v>600</v>
       </c>
       <c r="R68">
         <f t="shared" si="1"/>
-        <v>0.32980500000000001</v>
+        <v>1.2454289999999999</v>
       </c>
       <c r="S68">
         <f t="shared" si="2"/>
@@ -4080,10 +4273,10 @@
       </c>
       <c r="Y68">
         <f t="shared" si="8"/>
-        <v>0.32980500000000001</v>
+        <v>1.2454289999999999</v>
       </c>
       <c r="Z68">
-        <v>197.88300000000001</v>
+        <v>747.25739999999996</v>
       </c>
       <c r="AA68">
         <v>0</v>
@@ -4105,23 +4298,23 @@
       </c>
       <c r="AG68">
         <f t="shared" si="9"/>
-        <v>197.88300000000001</v>
+        <v>747.25739999999996</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C69">
         <v>600</v>
       </c>
       <c r="R69">
         <f t="shared" si="1"/>
-        <v>1.2454289999999999</v>
+        <v>0.12506399999999998</v>
       </c>
       <c r="S69">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.5757699999999999E-3</v>
       </c>
       <c r="T69">
         <f t="shared" si="3"/>
@@ -4145,13 +4338,13 @@
       </c>
       <c r="Y69">
         <f t="shared" si="8"/>
-        <v>1.2454289999999999</v>
+        <v>0.13063976999999999</v>
       </c>
       <c r="Z69">
-        <v>747.25739999999996</v>
+        <v>75.038399999999996</v>
       </c>
       <c r="AA69">
-        <v>0</v>
+        <v>3.3454619999999999</v>
       </c>
       <c r="AB69">
         <v>0</v>
@@ -4170,23 +4363,23 @@
       </c>
       <c r="AG69">
         <f t="shared" si="9"/>
-        <v>747.25739999999996</v>
+        <v>78.383861999999993</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C70">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="R70">
         <f t="shared" si="1"/>
-        <v>0.12506399999999998</v>
+        <v>0.15834000000000001</v>
       </c>
       <c r="S70">
         <f t="shared" si="2"/>
-        <v>5.5757699999999999E-3</v>
+        <v>0.24975496000000003</v>
       </c>
       <c r="T70">
         <f t="shared" si="3"/>
@@ -4210,13 +4403,13 @@
       </c>
       <c r="Y70">
         <f t="shared" si="8"/>
-        <v>0.13063976999999999</v>
+        <v>0.40809496000000001</v>
       </c>
       <c r="Z70">
-        <v>75.038399999999996</v>
+        <v>47.502000000000002</v>
       </c>
       <c r="AA70">
-        <v>3.3454619999999999</v>
+        <v>74.926488000000006</v>
       </c>
       <c r="AB70">
         <v>0</v>
@@ -4235,23 +4428,23 @@
       </c>
       <c r="AG70">
         <f t="shared" si="9"/>
-        <v>78.383861999999993</v>
+        <v>122.42848800000002</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C71">
         <v>300</v>
       </c>
       <c r="R71">
         <f t="shared" si="1"/>
-        <v>0.15834000000000001</v>
+        <v>0.21076</v>
       </c>
       <c r="S71">
         <f t="shared" si="2"/>
-        <v>0.24975496000000003</v>
+        <v>4.9107080000000004E-2</v>
       </c>
       <c r="T71">
         <f t="shared" si="3"/>
@@ -4275,13 +4468,13 @@
       </c>
       <c r="Y71">
         <f t="shared" si="8"/>
-        <v>0.40809496000000001</v>
+        <v>0.25986708000000003</v>
       </c>
       <c r="Z71">
-        <v>47.502000000000002</v>
+        <v>63.228000000000002</v>
       </c>
       <c r="AA71">
-        <v>74.926488000000006</v>
+        <v>14.732124000000001</v>
       </c>
       <c r="AB71">
         <v>0</v>
@@ -4300,23 +4493,23 @@
       </c>
       <c r="AG71">
         <f t="shared" si="9"/>
-        <v>122.42848800000002</v>
+        <v>77.960124000000008</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C72">
         <v>300</v>
       </c>
       <c r="R72">
         <f t="shared" si="1"/>
-        <v>0.21076</v>
+        <v>0.98059199999999991</v>
       </c>
       <c r="S72">
         <f t="shared" si="2"/>
-        <v>4.9107080000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="T72">
         <f t="shared" si="3"/>
@@ -4340,13 +4533,13 @@
       </c>
       <c r="Y72">
         <f t="shared" si="8"/>
-        <v>0.25986708000000003</v>
+        <v>0.98059199999999991</v>
       </c>
       <c r="Z72">
-        <v>63.228000000000002</v>
+        <v>294.17759999999998</v>
       </c>
       <c r="AA72">
-        <v>14.732124000000001</v>
+        <v>0</v>
       </c>
       <c r="AB72">
         <v>0</v>
@@ -4365,23 +4558,23 @@
       </c>
       <c r="AG72">
         <f t="shared" si="9"/>
-        <v>77.960124000000008</v>
+        <v>294.17759999999998</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C73">
         <v>300</v>
       </c>
       <c r="R73">
         <f t="shared" si="1"/>
-        <v>0.98059199999999991</v>
+        <v>3.6644999999999999</v>
       </c>
       <c r="S73">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.51994019999999996</v>
       </c>
       <c r="T73">
         <f t="shared" si="3"/>
@@ -4405,13 +4598,13 @@
       </c>
       <c r="Y73">
         <f t="shared" si="8"/>
-        <v>0.98059199999999991</v>
+        <v>4.1844402000000001</v>
       </c>
       <c r="Z73">
-        <v>294.17759999999998</v>
+        <v>1099.3499999999999</v>
       </c>
       <c r="AA73">
-        <v>0</v>
+        <v>155.98205999999999</v>
       </c>
       <c r="AB73">
         <v>0</v>
@@ -4430,23 +4623,23 @@
       </c>
       <c r="AG73">
         <f t="shared" si="9"/>
-        <v>294.17759999999998</v>
+        <v>1255.33206</v>
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C74">
         <v>300</v>
       </c>
       <c r="R74">
         <f t="shared" si="1"/>
-        <v>3.6644999999999999</v>
+        <v>30.978443000000002</v>
       </c>
       <c r="S74">
         <f t="shared" si="2"/>
-        <v>0.51994019999999996</v>
+        <v>1.5474040099999999</v>
       </c>
       <c r="T74">
         <f t="shared" si="3"/>
@@ -4462,21 +4655,21 @@
       </c>
       <c r="W74">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.8983999999999999</v>
       </c>
       <c r="X74">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.7459999999999996</v>
       </c>
       <c r="Y74">
         <f t="shared" si="8"/>
-        <v>4.1844402000000001</v>
+        <v>39.170247010000004</v>
       </c>
       <c r="Z74">
-        <v>1099.3499999999999</v>
+        <v>9293.5329000000002</v>
       </c>
       <c r="AA74">
-        <v>155.98205999999999</v>
+        <v>464.221203</v>
       </c>
       <c r="AB74">
         <v>0</v>
@@ -4488,30 +4681,30 @@
         <v>0</v>
       </c>
       <c r="AE74">
-        <v>0</v>
+        <v>569.52</v>
       </c>
       <c r="AF74">
-        <v>0</v>
+        <v>1423.8</v>
       </c>
       <c r="AG74">
         <f t="shared" si="9"/>
-        <v>1255.33206</v>
+        <v>11751.074102999999</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>51</v>
+      <c r="A75" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C75">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="R75">
         <f t="shared" si="1"/>
-        <v>30.978443000000002</v>
+        <v>9.0541999999999998</v>
       </c>
       <c r="S75">
         <f t="shared" si="2"/>
-        <v>1.5474040099999999</v>
+        <v>1.4399373599999998</v>
       </c>
       <c r="T75">
         <f t="shared" si="3"/>
@@ -4527,21 +4720,21 @@
       </c>
       <c r="W75">
         <f t="shared" si="6"/>
-        <v>1.8983999999999999</v>
+        <v>0</v>
       </c>
       <c r="X75">
         <f t="shared" si="7"/>
-        <v>4.7459999999999996</v>
+        <v>0</v>
       </c>
       <c r="Y75">
         <f t="shared" si="8"/>
-        <v>39.170247010000004</v>
+        <v>10.49413736</v>
       </c>
       <c r="Z75">
-        <v>9293.5329000000002</v>
+        <v>13581.3</v>
       </c>
       <c r="AA75">
-        <v>464.221203</v>
+        <v>2159.9060399999998</v>
       </c>
       <c r="AB75">
         <v>0</v>
@@ -4553,30 +4746,30 @@
         <v>0</v>
       </c>
       <c r="AE75">
-        <v>569.52</v>
+        <v>0</v>
       </c>
       <c r="AF75">
-        <v>1423.8</v>
+        <v>0</v>
       </c>
       <c r="AG75">
         <f t="shared" si="9"/>
-        <v>11751.074102999999</v>
+        <v>15741.206039999999</v>
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C76">
-        <v>1500</v>
+        <v>0.39</v>
       </c>
       <c r="R76">
         <f t="shared" si="1"/>
-        <v>9.0541999999999998</v>
+        <v>2108.8000000000002</v>
       </c>
       <c r="S76">
         <f t="shared" si="2"/>
-        <v>1.4399373599999998</v>
+        <v>413.33328792307691</v>
       </c>
       <c r="T76">
         <f t="shared" si="3"/>
@@ -4600,13 +4793,13 @@
       </c>
       <c r="Y76">
         <f t="shared" si="8"/>
-        <v>10.49413736</v>
+        <v>2522.1332879230772</v>
       </c>
       <c r="Z76">
-        <v>13581.3</v>
+        <v>822.43200000000002</v>
       </c>
       <c r="AA76">
-        <v>2159.9060399999998</v>
+        <v>161.19998229000001</v>
       </c>
       <c r="AB76">
         <v>0</v>
@@ -4625,23 +4818,23 @@
       </c>
       <c r="AG76">
         <f t="shared" si="9"/>
-        <v>15741.206039999999</v>
+        <v>983.63198229</v>
       </c>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C77">
-        <v>0.39</v>
+        <v>15</v>
       </c>
       <c r="R77">
         <f t="shared" si="1"/>
-        <v>2108.8000000000002</v>
+        <v>881.56949999999995</v>
       </c>
       <c r="S77">
         <f t="shared" si="2"/>
-        <v>413.33328792307691</v>
+        <v>0</v>
       </c>
       <c r="T77">
         <f t="shared" si="3"/>
@@ -4665,13 +4858,13 @@
       </c>
       <c r="Y77">
         <f t="shared" si="8"/>
-        <v>2522.1332879230772</v>
+        <v>881.56949999999995</v>
       </c>
       <c r="Z77">
-        <v>822.43200000000002</v>
+        <v>13223.5425</v>
       </c>
       <c r="AA77">
-        <v>161.19998229000001</v>
+        <v>0</v>
       </c>
       <c r="AB77">
         <v>0</v>
@@ -4690,19 +4883,19 @@
       </c>
       <c r="AG77">
         <f t="shared" si="9"/>
-        <v>983.63198229</v>
+        <v>13223.5425</v>
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C78">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="R78">
         <f t="shared" si="1"/>
-        <v>881.56949999999995</v>
+        <v>1352.26</v>
       </c>
       <c r="S78">
         <f t="shared" si="2"/>
@@ -4730,10 +4923,10 @@
       </c>
       <c r="Y78">
         <f t="shared" si="8"/>
-        <v>881.56949999999995</v>
+        <v>1352.26</v>
       </c>
       <c r="Z78">
-        <v>13223.5425</v>
+        <v>2028.39</v>
       </c>
       <c r="AA78">
         <v>0</v>
@@ -4755,19 +4948,19 @@
       </c>
       <c r="AG78">
         <f t="shared" si="9"/>
-        <v>13223.5425</v>
+        <v>2028.39</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C79">
-        <v>1.5</v>
+        <v>1500</v>
       </c>
       <c r="R79">
         <f t="shared" si="1"/>
-        <v>1352.26</v>
+        <v>11.208</v>
       </c>
       <c r="S79">
         <f t="shared" si="2"/>
@@ -4795,10 +4988,10 @@
       </c>
       <c r="Y79">
         <f t="shared" si="8"/>
-        <v>1352.26</v>
+        <v>11.208</v>
       </c>
       <c r="Z79">
-        <v>2028.39</v>
+        <v>16812</v>
       </c>
       <c r="AA79">
         <v>0</v>
@@ -4820,23 +5013,23 @@
       </c>
       <c r="AG79">
         <f t="shared" si="9"/>
-        <v>2028.39</v>
+        <v>16812</v>
       </c>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>56</v>
+      <c r="A80" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C80">
-        <v>1500</v>
+        <v>137</v>
       </c>
       <c r="R80">
         <f t="shared" si="1"/>
-        <v>11.208</v>
+        <v>58.367013</v>
       </c>
       <c r="S80">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.5323544817518249</v>
       </c>
       <c r="T80">
         <f t="shared" si="3"/>
@@ -4852,21 +5045,21 @@
       </c>
       <c r="W80">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>13.095105</v>
       </c>
       <c r="X80">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>32.737762503649634</v>
       </c>
       <c r="Y80">
         <f t="shared" si="8"/>
-        <v>11.208</v>
+        <v>108.73223498540146</v>
       </c>
       <c r="Z80">
-        <v>16812</v>
+        <v>7996.2807810000004</v>
       </c>
       <c r="AA80">
-        <v>0</v>
+        <v>620.93256399999996</v>
       </c>
       <c r="AB80">
         <v>0</v>
@@ -4878,30 +5071,30 @@
         <v>0</v>
       </c>
       <c r="AE80">
-        <v>0</v>
+        <v>1794.029385</v>
       </c>
       <c r="AF80">
-        <v>0</v>
+        <v>4485.0734629999997</v>
       </c>
       <c r="AG80">
         <f t="shared" si="9"/>
-        <v>16812</v>
+        <v>14896.316192999999</v>
       </c>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>39</v>
+      <c r="A81" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C81">
-        <v>137</v>
+        <v>302</v>
       </c>
       <c r="R81">
         <f t="shared" si="1"/>
-        <v>58.367013</v>
+        <v>15.834000000000001</v>
       </c>
       <c r="S81">
         <f t="shared" si="2"/>
-        <v>4.5323544817518249</v>
+        <v>1.8332605198675496</v>
       </c>
       <c r="T81">
         <f t="shared" si="3"/>
@@ -4917,21 +5110,21 @@
       </c>
       <c r="W81">
         <f t="shared" si="6"/>
-        <v>13.095105</v>
+        <v>0</v>
       </c>
       <c r="X81">
         <f t="shared" si="7"/>
-        <v>32.737762503649634</v>
+        <v>0</v>
       </c>
       <c r="Y81">
         <f t="shared" si="8"/>
-        <v>108.73223498540146</v>
+        <v>17.667260519867551</v>
       </c>
       <c r="Z81">
-        <v>7996.2807810000004</v>
+        <v>4781.8680000000004</v>
       </c>
       <c r="AA81">
-        <v>620.93256399999996</v>
+        <v>553.644677</v>
       </c>
       <c r="AB81">
         <v>0</v>
@@ -4943,30 +5136,30 @@
         <v>0</v>
       </c>
       <c r="AE81">
-        <v>1794.029385</v>
+        <v>0</v>
       </c>
       <c r="AF81">
-        <v>4485.0734629999997</v>
+        <v>0</v>
       </c>
       <c r="AG81">
         <f t="shared" si="9"/>
-        <v>14896.316192999999</v>
+        <v>5335.5126770000006</v>
       </c>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C82">
-        <v>302</v>
+        <v>15.1</v>
       </c>
       <c r="R82">
         <f t="shared" si="1"/>
-        <v>15.834000000000001</v>
+        <v>51.067800000000005</v>
       </c>
       <c r="S82">
         <f t="shared" si="2"/>
-        <v>1.8332605198675496</v>
+        <v>0.2879598675496689</v>
       </c>
       <c r="T82">
         <f t="shared" si="3"/>
@@ -4990,13 +5183,13 @@
       </c>
       <c r="Y82">
         <f t="shared" si="8"/>
-        <v>17.667260519867551</v>
+        <v>51.355759867549672</v>
       </c>
       <c r="Z82">
-        <v>4781.8680000000004</v>
+        <v>771.12378000000001</v>
       </c>
       <c r="AA82">
-        <v>553.644677</v>
+        <v>4.3481940000000003</v>
       </c>
       <c r="AB82">
         <v>0</v>
@@ -5015,23 +5208,23 @@
       </c>
       <c r="AG82">
         <f t="shared" si="9"/>
-        <v>5335.5126770000006</v>
+        <v>775.47197400000005</v>
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C83">
-        <v>15.1</v>
+        <v>302</v>
       </c>
       <c r="R83">
         <f t="shared" si="1"/>
-        <v>51.067800000000005</v>
+        <v>39.979622999999997</v>
       </c>
       <c r="S83">
         <f t="shared" si="2"/>
-        <v>0.2879598675496689</v>
+        <v>2.6846959701986757</v>
       </c>
       <c r="T83">
         <f t="shared" si="3"/>
@@ -5047,21 +5240,21 @@
       </c>
       <c r="W83">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.1539289999999998</v>
       </c>
       <c r="X83">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20.384822500000002</v>
       </c>
       <c r="Y83">
         <f t="shared" si="8"/>
-        <v>51.355759867549672</v>
+        <v>71.203070470198668</v>
       </c>
       <c r="Z83">
-        <v>771.12378000000001</v>
+        <v>12073.846146</v>
       </c>
       <c r="AA83">
-        <v>4.3481940000000003</v>
+        <v>810.77818300000001</v>
       </c>
       <c r="AB83">
         <v>0</v>
@@ -5073,30 +5266,30 @@
         <v>0</v>
       </c>
       <c r="AE83">
-        <v>0</v>
+        <v>2462.4865580000001</v>
       </c>
       <c r="AF83">
-        <v>0</v>
+        <v>6156.2163950000004</v>
       </c>
       <c r="AG83">
         <f t="shared" si="9"/>
-        <v>775.47197400000005</v>
+        <v>21503.327282000002</v>
       </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>42</v>
+      <c r="A84" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C84">
-        <v>302</v>
+        <v>600</v>
       </c>
       <c r="R84">
         <f t="shared" si="1"/>
-        <v>39.979622999999997</v>
+        <v>0.1878968</v>
       </c>
       <c r="S84">
         <f t="shared" si="2"/>
-        <v>2.6846959701986757</v>
+        <v>0</v>
       </c>
       <c r="T84">
         <f t="shared" si="3"/>
@@ -5112,21 +5305,21 @@
       </c>
       <c r="W84">
         <f t="shared" si="6"/>
-        <v>8.1539289999999998</v>
+        <v>0</v>
       </c>
       <c r="X84">
         <f t="shared" si="7"/>
-        <v>20.384822500000002</v>
+        <v>0</v>
       </c>
       <c r="Y84">
         <f t="shared" si="8"/>
-        <v>71.203070470198668</v>
+        <v>0.1878968</v>
       </c>
       <c r="Z84">
-        <v>12073.846146</v>
+        <v>112.73808</v>
       </c>
       <c r="AA84">
-        <v>810.77818300000001</v>
+        <v>0</v>
       </c>
       <c r="AB84">
         <v>0</v>
@@ -5138,26 +5331,26 @@
         <v>0</v>
       </c>
       <c r="AE84">
-        <v>2462.4865580000001</v>
+        <v>0</v>
       </c>
       <c r="AF84">
-        <v>6156.2163950000004</v>
+        <v>0</v>
       </c>
       <c r="AG84">
         <f t="shared" si="9"/>
-        <v>21503.327282000002</v>
+        <v>112.73808</v>
       </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C85">
         <v>600</v>
       </c>
       <c r="R85">
         <f t="shared" si="1"/>
-        <v>0.1878968</v>
+        <v>0.32980500000000001</v>
       </c>
       <c r="S85">
         <f t="shared" si="2"/>
@@ -5185,10 +5378,10 @@
       </c>
       <c r="Y85">
         <f t="shared" si="8"/>
-        <v>0.1878968</v>
+        <v>0.32980500000000001</v>
       </c>
       <c r="Z85">
-        <v>112.73808</v>
+        <v>197.88300000000001</v>
       </c>
       <c r="AA85">
         <v>0</v>
@@ -5210,19 +5403,19 @@
       </c>
       <c r="AG85">
         <f t="shared" si="9"/>
-        <v>112.73808</v>
+        <v>197.88300000000001</v>
       </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C86">
         <v>600</v>
       </c>
       <c r="R86">
         <f t="shared" si="1"/>
-        <v>0.32980500000000001</v>
+        <v>1.2454289999999999</v>
       </c>
       <c r="S86">
         <f t="shared" si="2"/>
@@ -5250,10 +5443,10 @@
       </c>
       <c r="Y86">
         <f t="shared" si="8"/>
-        <v>0.32980500000000001</v>
+        <v>1.2454289999999999</v>
       </c>
       <c r="Z86">
-        <v>197.88300000000001</v>
+        <v>747.25739999999996</v>
       </c>
       <c r="AA86">
         <v>0</v>
@@ -5275,23 +5468,23 @@
       </c>
       <c r="AG86">
         <f t="shared" si="9"/>
-        <v>197.88300000000001</v>
+        <v>747.25739999999996</v>
       </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C87">
         <v>600</v>
       </c>
       <c r="R87">
         <f t="shared" si="1"/>
-        <v>1.2454289999999999</v>
+        <v>0.12506399999999998</v>
       </c>
       <c r="S87">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.5757699999999999E-3</v>
       </c>
       <c r="T87">
         <f t="shared" si="3"/>
@@ -5315,13 +5508,13 @@
       </c>
       <c r="Y87">
         <f t="shared" si="8"/>
-        <v>1.2454289999999999</v>
+        <v>0.13063976999999999</v>
       </c>
       <c r="Z87">
-        <v>747.25739999999996</v>
+        <v>75.038399999999996</v>
       </c>
       <c r="AA87">
-        <v>0</v>
+        <v>3.3454619999999999</v>
       </c>
       <c r="AB87">
         <v>0</v>
@@ -5340,53 +5533,53 @@
       </c>
       <c r="AG87">
         <f t="shared" si="9"/>
-        <v>747.25739999999996</v>
+        <v>78.383861999999993</v>
       </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C88">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="R88">
-        <f t="shared" si="1"/>
-        <v>0.12506399999999998</v>
+        <f t="shared" ref="R88:R144" si="10">Z88/$C88</f>
+        <v>0.15834000000000001</v>
       </c>
       <c r="S88">
-        <f t="shared" si="2"/>
-        <v>5.5757699999999999E-3</v>
+        <f t="shared" ref="S88:S144" si="11">AA88/$C88</f>
+        <v>0.24975496000000003</v>
       </c>
       <c r="T88">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="T88:T144" si="12">AB88/$C88</f>
         <v>0</v>
       </c>
       <c r="U88">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="U88:U144" si="13">AC88/$C88</f>
         <v>0</v>
       </c>
       <c r="V88">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="V88:V144" si="14">AD88/$C88</f>
         <v>0</v>
       </c>
       <c r="W88">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="W88:W144" si="15">AE88/$C88</f>
         <v>0</v>
       </c>
       <c r="X88">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="X88:X144" si="16">AF88/$C88</f>
         <v>0</v>
       </c>
       <c r="Y88">
-        <f t="shared" si="8"/>
-        <v>0.13063976999999999</v>
+        <f t="shared" ref="Y88:Y144" si="17">SUM(R88:X88)</f>
+        <v>0.40809496000000001</v>
       </c>
       <c r="Z88">
-        <v>75.038399999999996</v>
+        <v>47.502000000000002</v>
       </c>
       <c r="AA88">
-        <v>3.3454619999999999</v>
+        <v>74.926488000000006</v>
       </c>
       <c r="AB88">
         <v>0</v>
@@ -5404,54 +5597,54 @@
         <v>0</v>
       </c>
       <c r="AG88">
-        <f t="shared" si="9"/>
-        <v>78.383861999999993</v>
+        <f t="shared" ref="AG88:AG144" si="18">Z88+AA88+AB88+AC88+AD88+AE88+AF88</f>
+        <v>122.42848800000002</v>
       </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C89">
         <v>300</v>
       </c>
       <c r="R89">
-        <f t="shared" ref="R89:R145" si="10">Z89/$C89</f>
-        <v>0.15834000000000001</v>
+        <f t="shared" si="10"/>
+        <v>0.21076</v>
       </c>
       <c r="S89">
-        <f t="shared" ref="S89:S145" si="11">AA89/$C89</f>
-        <v>0.24975496000000003</v>
+        <f t="shared" si="11"/>
+        <v>4.9107080000000004E-2</v>
       </c>
       <c r="T89">
-        <f t="shared" ref="T89:T145" si="12">AB89/$C89</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U89">
-        <f t="shared" ref="U89:U145" si="13">AC89/$C89</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V89">
-        <f t="shared" ref="V89:V145" si="14">AD89/$C89</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W89">
-        <f t="shared" ref="W89:W145" si="15">AE89/$C89</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X89">
-        <f t="shared" ref="X89:X145" si="16">AF89/$C89</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y89">
-        <f t="shared" ref="Y89:Y145" si="17">SUM(R89:X89)</f>
-        <v>0.40809496000000001</v>
+        <f t="shared" si="17"/>
+        <v>0.25986708000000003</v>
       </c>
       <c r="Z89">
-        <v>47.502000000000002</v>
+        <v>63.228000000000002</v>
       </c>
       <c r="AA89">
-        <v>74.926488000000006</v>
+        <v>14.732124000000001</v>
       </c>
       <c r="AB89">
         <v>0</v>
@@ -5469,24 +5662,24 @@
         <v>0</v>
       </c>
       <c r="AG89">
-        <f t="shared" ref="AG89:AG145" si="18">Z89+AA89+AB89+AC89+AD89+AE89+AF89</f>
-        <v>122.42848800000002</v>
+        <f t="shared" si="18"/>
+        <v>77.960124000000008</v>
       </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C90">
         <v>300</v>
       </c>
       <c r="R90">
         <f t="shared" si="10"/>
-        <v>0.21076</v>
+        <v>0.98059199999999991</v>
       </c>
       <c r="S90">
         <f t="shared" si="11"/>
-        <v>4.9107080000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="T90">
         <f t="shared" si="12"/>
@@ -5510,13 +5703,13 @@
       </c>
       <c r="Y90">
         <f t="shared" si="17"/>
-        <v>0.25986708000000003</v>
+        <v>0.98059199999999991</v>
       </c>
       <c r="Z90">
-        <v>63.228000000000002</v>
+        <v>294.17759999999998</v>
       </c>
       <c r="AA90">
-        <v>14.732124000000001</v>
+        <v>0</v>
       </c>
       <c r="AB90">
         <v>0</v>
@@ -5535,23 +5728,23 @@
       </c>
       <c r="AG90">
         <f t="shared" si="18"/>
-        <v>77.960124000000008</v>
+        <v>294.17759999999998</v>
       </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C91">
         <v>300</v>
       </c>
       <c r="R91">
         <f t="shared" si="10"/>
-        <v>0.98059199999999991</v>
+        <v>3.6644999999999999</v>
       </c>
       <c r="S91">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.51994019999999996</v>
       </c>
       <c r="T91">
         <f t="shared" si="12"/>
@@ -5575,13 +5768,13 @@
       </c>
       <c r="Y91">
         <f t="shared" si="17"/>
-        <v>0.98059199999999991</v>
+        <v>4.1844402000000001</v>
       </c>
       <c r="Z91">
-        <v>294.17759999999998</v>
+        <v>1099.3499999999999</v>
       </c>
       <c r="AA91">
-        <v>0</v>
+        <v>155.98205999999999</v>
       </c>
       <c r="AB91">
         <v>0</v>
@@ -5600,23 +5793,23 @@
       </c>
       <c r="AG91">
         <f t="shared" si="18"/>
-        <v>294.17759999999998</v>
+        <v>1255.33206</v>
       </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C92">
         <v>300</v>
       </c>
       <c r="R92">
         <f t="shared" si="10"/>
-        <v>3.6644999999999999</v>
+        <v>31.189041400000001</v>
       </c>
       <c r="S92">
         <f t="shared" si="11"/>
-        <v>0.51994019999999996</v>
+        <v>1.8547421899999998</v>
       </c>
       <c r="T92">
         <f t="shared" si="12"/>
@@ -5632,21 +5825,21 @@
       </c>
       <c r="W92">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.8983999999999999</v>
       </c>
       <c r="X92">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4.7459999999999996</v>
       </c>
       <c r="Y92">
         <f t="shared" si="17"/>
-        <v>4.1844402000000001</v>
+        <v>39.688183590000008</v>
       </c>
       <c r="Z92">
-        <v>1099.3499999999999</v>
+        <v>9356.7124199999998</v>
       </c>
       <c r="AA92">
-        <v>155.98205999999999</v>
+        <v>556.42265699999996</v>
       </c>
       <c r="AB92">
         <v>0</v>
@@ -5658,30 +5851,30 @@
         <v>0</v>
       </c>
       <c r="AE92">
-        <v>0</v>
+        <v>569.52</v>
       </c>
       <c r="AF92">
-        <v>0</v>
+        <v>1423.8</v>
       </c>
       <c r="AG92">
         <f t="shared" si="18"/>
-        <v>1255.33206</v>
+        <v>11906.455076999999</v>
       </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>51</v>
+      <c r="A93" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C93">
-        <v>300</v>
+        <v>716</v>
       </c>
       <c r="R93">
         <f t="shared" si="10"/>
-        <v>31.189041400000001</v>
+        <v>8.4489999999999998</v>
       </c>
       <c r="S93">
         <f t="shared" si="11"/>
-        <v>1.8547421899999998</v>
+        <v>1.6399508999999999</v>
       </c>
       <c r="T93">
         <f t="shared" si="12"/>
@@ -5697,21 +5890,21 @@
       </c>
       <c r="W93">
         <f t="shared" si="15"/>
-        <v>1.8983999999999999</v>
+        <v>0</v>
       </c>
       <c r="X93">
         <f t="shared" si="16"/>
-        <v>4.7459999999999996</v>
+        <v>0</v>
       </c>
       <c r="Y93">
         <f t="shared" si="17"/>
-        <v>39.688183590000008</v>
+        <v>10.0889509</v>
       </c>
       <c r="Z93">
-        <v>9356.7124199999998</v>
+        <v>6049.4840000000004</v>
       </c>
       <c r="AA93">
-        <v>556.42265699999996</v>
+        <v>1174.2048444</v>
       </c>
       <c r="AB93">
         <v>0</v>
@@ -5723,14 +5916,14 @@
         <v>0</v>
       </c>
       <c r="AE93">
-        <v>569.52</v>
+        <v>0</v>
       </c>
       <c r="AF93">
-        <v>1423.8</v>
+        <v>0</v>
       </c>
       <c r="AG93">
         <f t="shared" si="18"/>
-        <v>11906.455076999999</v>
+        <v>7223.6888444000006</v>
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
@@ -5738,15 +5931,15 @@
         <v>52</v>
       </c>
       <c r="C94">
-        <v>716</v>
+        <v>1284</v>
       </c>
       <c r="R94">
         <f t="shared" si="10"/>
-        <v>8.4489999999999998</v>
+        <v>9.0541999999999998</v>
       </c>
       <c r="S94">
         <f t="shared" si="11"/>
-        <v>1.6399508999999999</v>
+        <v>1.4399373600000001</v>
       </c>
       <c r="T94">
         <f t="shared" si="12"/>
@@ -5770,13 +5963,13 @@
       </c>
       <c r="Y94">
         <f t="shared" si="17"/>
-        <v>10.0889509</v>
+        <v>10.49413736</v>
       </c>
       <c r="Z94">
-        <v>6049.4840000000004</v>
+        <v>11625.5928</v>
       </c>
       <c r="AA94">
-        <v>1174.2048444</v>
+        <v>1848.87957024</v>
       </c>
       <c r="AB94">
         <v>0</v>
@@ -5795,23 +5988,23 @@
       </c>
       <c r="AG94">
         <f t="shared" si="18"/>
-        <v>7223.6888444000006</v>
+        <v>13474.472370240001</v>
       </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C95">
-        <v>1284</v>
+        <v>0.52</v>
       </c>
       <c r="R95">
         <f t="shared" si="10"/>
-        <v>9.0541999999999998</v>
+        <v>2140.7999999999997</v>
       </c>
       <c r="S95">
         <f t="shared" si="11"/>
-        <v>1.4399373600000001</v>
+        <v>1319.9999395192308</v>
       </c>
       <c r="T95">
         <f t="shared" si="12"/>
@@ -5835,13 +6028,13 @@
       </c>
       <c r="Y95">
         <f t="shared" si="17"/>
-        <v>10.49413736</v>
+        <v>3460.7999395192305</v>
       </c>
       <c r="Z95">
-        <v>11625.5928</v>
+        <v>1113.2159999999999</v>
       </c>
       <c r="AA95">
-        <v>1848.87957024</v>
+        <v>686.39996855000004</v>
       </c>
       <c r="AB95">
         <v>0</v>
@@ -5860,23 +6053,23 @@
       </c>
       <c r="AG95">
         <f t="shared" si="18"/>
-        <v>13474.472370240001</v>
+        <v>1799.6159685499999</v>
       </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C96">
-        <v>0.52</v>
+        <v>20</v>
       </c>
       <c r="R96">
         <f t="shared" si="10"/>
-        <v>2140.7999999999997</v>
+        <v>919.53750000000002</v>
       </c>
       <c r="S96">
         <f t="shared" si="11"/>
-        <v>1319.9999395192308</v>
+        <v>0</v>
       </c>
       <c r="T96">
         <f t="shared" si="12"/>
@@ -5900,13 +6093,13 @@
       </c>
       <c r="Y96">
         <f t="shared" si="17"/>
-        <v>3460.7999395192305</v>
+        <v>919.53750000000002</v>
       </c>
       <c r="Z96">
-        <v>1113.2159999999999</v>
+        <v>18390.75</v>
       </c>
       <c r="AA96">
-        <v>686.39996855000004</v>
+        <v>0</v>
       </c>
       <c r="AB96">
         <v>0</v>
@@ -5925,19 +6118,19 @@
       </c>
       <c r="AG96">
         <f t="shared" si="18"/>
-        <v>1799.6159685499999</v>
+        <v>18390.75</v>
       </c>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C97">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R97">
         <f t="shared" si="10"/>
-        <v>919.53750000000002</v>
+        <v>1391.52</v>
       </c>
       <c r="S97">
         <f t="shared" si="11"/>
@@ -5965,10 +6158,10 @@
       </c>
       <c r="Y97">
         <f t="shared" si="17"/>
-        <v>919.53750000000002</v>
+        <v>1391.52</v>
       </c>
       <c r="Z97">
-        <v>18390.75</v>
+        <v>2783.04</v>
       </c>
       <c r="AA97">
         <v>0</v>
@@ -5990,19 +6183,19 @@
       </c>
       <c r="AG97">
         <f t="shared" si="18"/>
-        <v>18390.75</v>
+        <v>2783.04</v>
       </c>
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="R98">
         <f t="shared" si="10"/>
-        <v>1391.52</v>
+        <v>11.208</v>
       </c>
       <c r="S98">
         <f t="shared" si="11"/>
@@ -6030,10 +6223,10 @@
       </c>
       <c r="Y98">
         <f t="shared" si="17"/>
-        <v>1391.52</v>
+        <v>11.208</v>
       </c>
       <c r="Z98">
-        <v>2783.04</v>
+        <v>22416</v>
       </c>
       <c r="AA98">
         <v>0</v>
@@ -6055,23 +6248,23 @@
       </c>
       <c r="AG98">
         <f t="shared" si="18"/>
-        <v>2783.04</v>
+        <v>22416</v>
       </c>
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>56</v>
+      <c r="A99" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C99">
-        <v>2000</v>
+        <v>93</v>
       </c>
       <c r="R99">
         <f t="shared" si="10"/>
-        <v>11.208</v>
+        <v>30.553169999999998</v>
       </c>
       <c r="S99">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.024446623655914</v>
       </c>
       <c r="T99">
         <f t="shared" si="12"/>
@@ -6087,21 +6280,21 @@
       </c>
       <c r="W99">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3.3600000000000003</v>
       </c>
       <c r="X99">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y99">
         <f t="shared" si="17"/>
-        <v>11.208</v>
+        <v>43.337616623655911</v>
       </c>
       <c r="Z99">
-        <v>22416</v>
+        <v>2841.44481</v>
       </c>
       <c r="AA99">
-        <v>0</v>
+        <v>95.273536000000007</v>
       </c>
       <c r="AB99">
         <v>0</v>
@@ -6113,30 +6306,30 @@
         <v>0</v>
       </c>
       <c r="AE99">
-        <v>0</v>
+        <v>312.48</v>
       </c>
       <c r="AF99">
-        <v>0</v>
+        <v>781.2</v>
       </c>
       <c r="AG99">
         <f t="shared" si="18"/>
-        <v>22416</v>
+        <v>4030.3983459999999</v>
       </c>
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>57</v>
+      <c r="A100" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C100">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="R100">
         <f t="shared" si="10"/>
-        <v>30.553169999999998</v>
+        <v>8.5406399999999998</v>
       </c>
       <c r="S100">
         <f t="shared" si="11"/>
-        <v>1.024446623655914</v>
+        <v>0.12109784</v>
       </c>
       <c r="T100">
         <f t="shared" si="12"/>
@@ -6152,21 +6345,21 @@
       </c>
       <c r="W100">
         <f t="shared" si="15"/>
-        <v>3.3600000000000003</v>
+        <v>0</v>
       </c>
       <c r="X100">
         <f t="shared" si="16"/>
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Y100">
         <f t="shared" si="17"/>
-        <v>43.337616623655911</v>
+        <v>8.6617378399999989</v>
       </c>
       <c r="Z100">
-        <v>2841.44481</v>
+        <v>1708.1279999999999</v>
       </c>
       <c r="AA100">
-        <v>95.273536000000007</v>
+        <v>24.219567999999999</v>
       </c>
       <c r="AB100">
         <v>0</v>
@@ -6178,30 +6371,30 @@
         <v>0</v>
       </c>
       <c r="AE100">
-        <v>312.48</v>
+        <v>0</v>
       </c>
       <c r="AF100">
-        <v>781.2</v>
+        <v>0</v>
       </c>
       <c r="AG100">
         <f t="shared" si="18"/>
-        <v>4030.3983459999999</v>
+        <v>1732.3475679999999</v>
       </c>
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C101">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="R101">
         <f t="shared" si="10"/>
-        <v>8.5406399999999998</v>
+        <v>4.6751100000000001</v>
       </c>
       <c r="S101">
         <f t="shared" si="11"/>
-        <v>0.12109784</v>
+        <v>0.15995914</v>
       </c>
       <c r="T101">
         <f t="shared" si="12"/>
@@ -6225,13 +6418,13 @@
       </c>
       <c r="Y101">
         <f t="shared" si="17"/>
-        <v>8.6617378399999989</v>
+        <v>4.8350691399999999</v>
       </c>
       <c r="Z101">
-        <v>1708.1279999999999</v>
+        <v>2805.0659999999998</v>
       </c>
       <c r="AA101">
-        <v>24.219567999999999</v>
+        <v>95.975483999999994</v>
       </c>
       <c r="AB101">
         <v>0</v>
@@ -6250,23 +6443,23 @@
       </c>
       <c r="AG101">
         <f t="shared" si="18"/>
-        <v>1732.3475679999999</v>
+        <v>2901.0414839999999</v>
       </c>
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C102">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="R102">
         <f t="shared" si="10"/>
-        <v>4.6751100000000001</v>
+        <v>7.9872000000000005</v>
       </c>
       <c r="S102">
         <f t="shared" si="11"/>
-        <v>0.15995914</v>
+        <v>0.42347135999999996</v>
       </c>
       <c r="T102">
         <f t="shared" si="12"/>
@@ -6282,21 +6475,21 @@
       </c>
       <c r="W102">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X102">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="Y102">
         <f t="shared" si="17"/>
-        <v>4.8350691399999999</v>
+        <v>14.04567136</v>
       </c>
       <c r="Z102">
-        <v>2805.0659999999998</v>
+        <v>1597.44</v>
       </c>
       <c r="AA102">
-        <v>95.975483999999994</v>
+        <v>84.694271999999998</v>
       </c>
       <c r="AB102">
         <v>0</v>
@@ -6308,22 +6501,22 @@
         <v>0</v>
       </c>
       <c r="AE102">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="AF102">
-        <v>0</v>
+        <v>805</v>
       </c>
       <c r="AG102">
         <f t="shared" si="18"/>
-        <v>2901.0414839999999</v>
+        <v>2809.1342720000002</v>
       </c>
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>60</v>
+      <c r="A103" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C103">
-        <v>200</v>
+        <v>541</v>
       </c>
       <c r="R103">
         <f t="shared" si="10"/>
@@ -6331,7 +6524,7 @@
       </c>
       <c r="S103">
         <f t="shared" si="11"/>
-        <v>0.42347135999999996</v>
+        <v>0.42347136044362294</v>
       </c>
       <c r="T103">
         <f t="shared" si="12"/>
@@ -6347,21 +6540,21 @@
       </c>
       <c r="W103">
         <f t="shared" si="15"/>
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="X103">
         <f t="shared" si="16"/>
-        <v>4.0250000000000004</v>
+        <v>0</v>
       </c>
       <c r="Y103">
         <f t="shared" si="17"/>
-        <v>14.04567136</v>
+        <v>8.4106713604436241</v>
       </c>
       <c r="Z103">
-        <v>1597.44</v>
+        <v>4321.0752000000002</v>
       </c>
       <c r="AA103">
-        <v>84.694271999999998</v>
+        <v>229.098006</v>
       </c>
       <c r="AB103">
         <v>0</v>
@@ -6373,30 +6566,30 @@
         <v>0</v>
       </c>
       <c r="AE103">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="AF103">
-        <v>805</v>
+        <v>0</v>
       </c>
       <c r="AG103">
         <f t="shared" si="18"/>
-        <v>2809.1342720000002</v>
+        <v>4550.1732060000004</v>
       </c>
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>61</v>
+      <c r="A104" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C104">
-        <v>541</v>
+        <v>107</v>
       </c>
       <c r="R104">
         <f t="shared" si="10"/>
-        <v>7.9872000000000005</v>
+        <v>30.553170000000001</v>
       </c>
       <c r="S104">
         <f t="shared" si="11"/>
-        <v>0.42347136044362294</v>
+        <v>1.0244466168224298</v>
       </c>
       <c r="T104">
         <f t="shared" si="12"/>
@@ -6412,21 +6605,21 @@
       </c>
       <c r="W104">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3.36</v>
       </c>
       <c r="X104">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y104">
         <f t="shared" si="17"/>
-        <v>8.4106713604436241</v>
+        <v>43.33761661682243</v>
       </c>
       <c r="Z104">
-        <v>4321.0752000000002</v>
+        <v>3269.1891900000001</v>
       </c>
       <c r="AA104">
-        <v>229.098006</v>
+        <v>109.61578799999999</v>
       </c>
       <c r="AB104">
         <v>0</v>
@@ -6438,30 +6631,30 @@
         <v>0</v>
       </c>
       <c r="AE104">
-        <v>0</v>
+        <v>359.52</v>
       </c>
       <c r="AF104">
-        <v>0</v>
+        <v>898.8</v>
       </c>
       <c r="AG104">
         <f t="shared" si="18"/>
-        <v>4550.1732060000004</v>
+        <v>4637.1249779999998</v>
       </c>
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>57</v>
+      <c r="A105" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C105">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="R105">
         <f t="shared" si="10"/>
-        <v>30.553170000000001</v>
+        <v>8.5406399999999998</v>
       </c>
       <c r="S105">
         <f t="shared" si="11"/>
-        <v>1.0244466168224298</v>
+        <v>0.12109784</v>
       </c>
       <c r="T105">
         <f t="shared" si="12"/>
@@ -6477,21 +6670,21 @@
       </c>
       <c r="W105">
         <f t="shared" si="15"/>
-        <v>3.36</v>
+        <v>0</v>
       </c>
       <c r="X105">
         <f t="shared" si="16"/>
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Y105">
         <f t="shared" si="17"/>
-        <v>43.33761661682243</v>
+        <v>8.6617378399999989</v>
       </c>
       <c r="Z105">
-        <v>3269.1891900000001</v>
+        <v>1708.1279999999999</v>
       </c>
       <c r="AA105">
-        <v>109.61578799999999</v>
+        <v>24.219567999999999</v>
       </c>
       <c r="AB105">
         <v>0</v>
@@ -6503,30 +6696,30 @@
         <v>0</v>
       </c>
       <c r="AE105">
-        <v>359.52</v>
+        <v>0</v>
       </c>
       <c r="AF105">
-        <v>898.8</v>
+        <v>0</v>
       </c>
       <c r="AG105">
         <f t="shared" si="18"/>
-        <v>4637.1249779999998</v>
+        <v>1732.3475679999999</v>
       </c>
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C106">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="R106">
         <f t="shared" si="10"/>
-        <v>8.5406399999999998</v>
+        <v>4.6751100000000001</v>
       </c>
       <c r="S106">
         <f t="shared" si="11"/>
-        <v>0.12109784</v>
+        <v>0.15995914</v>
       </c>
       <c r="T106">
         <f t="shared" si="12"/>
@@ -6550,13 +6743,13 @@
       </c>
       <c r="Y106">
         <f t="shared" si="17"/>
-        <v>8.6617378399999989</v>
+        <v>4.8350691399999999</v>
       </c>
       <c r="Z106">
-        <v>1708.1279999999999</v>
+        <v>2805.0659999999998</v>
       </c>
       <c r="AA106">
-        <v>24.219567999999999</v>
+        <v>95.975483999999994</v>
       </c>
       <c r="AB106">
         <v>0</v>
@@ -6575,23 +6768,23 @@
       </c>
       <c r="AG106">
         <f t="shared" si="18"/>
-        <v>1732.3475679999999</v>
+        <v>2901.0414839999999</v>
       </c>
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C107">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="R107">
         <f t="shared" si="10"/>
-        <v>4.6751100000000001</v>
+        <v>7.9872000000000005</v>
       </c>
       <c r="S107">
         <f t="shared" si="11"/>
-        <v>0.15995914</v>
+        <v>0.42347135999999996</v>
       </c>
       <c r="T107">
         <f t="shared" si="12"/>
@@ -6607,21 +6800,21 @@
       </c>
       <c r="W107">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X107">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="Y107">
         <f t="shared" si="17"/>
-        <v>4.8350691399999999</v>
+        <v>14.04567136</v>
       </c>
       <c r="Z107">
-        <v>2805.0659999999998</v>
+        <v>1597.44</v>
       </c>
       <c r="AA107">
-        <v>95.975483999999994</v>
+        <v>84.694271999999998</v>
       </c>
       <c r="AB107">
         <v>0</v>
@@ -6633,22 +6826,22 @@
         <v>0</v>
       </c>
       <c r="AE107">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="AF107">
-        <v>0</v>
+        <v>805</v>
       </c>
       <c r="AG107">
         <f t="shared" si="18"/>
-        <v>2901.0414839999999</v>
+        <v>2809.1342720000002</v>
       </c>
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>60</v>
+      <c r="A108" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C108">
-        <v>200</v>
+        <v>541</v>
       </c>
       <c r="R108">
         <f t="shared" si="10"/>
@@ -6656,7 +6849,7 @@
       </c>
       <c r="S108">
         <f t="shared" si="11"/>
-        <v>0.42347135999999996</v>
+        <v>0.42347136044362294</v>
       </c>
       <c r="T108">
         <f t="shared" si="12"/>
@@ -6672,21 +6865,21 @@
       </c>
       <c r="W108">
         <f t="shared" si="15"/>
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="X108">
         <f t="shared" si="16"/>
-        <v>4.0250000000000004</v>
+        <v>0</v>
       </c>
       <c r="Y108">
         <f t="shared" si="17"/>
-        <v>14.04567136</v>
+        <v>8.4106713604436241</v>
       </c>
       <c r="Z108">
-        <v>1597.44</v>
+        <v>4321.0752000000002</v>
       </c>
       <c r="AA108">
-        <v>84.694271999999998</v>
+        <v>229.098006</v>
       </c>
       <c r="AB108">
         <v>0</v>
@@ -6698,30 +6891,30 @@
         <v>0</v>
       </c>
       <c r="AE108">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="AF108">
-        <v>805</v>
+        <v>0</v>
       </c>
       <c r="AG108">
         <f t="shared" si="18"/>
-        <v>2809.1342720000002</v>
+        <v>4550.1732060000004</v>
       </c>
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
-        <v>61</v>
+      <c r="A109" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C109">
-        <v>541</v>
+        <v>113</v>
       </c>
       <c r="R109">
         <f t="shared" si="10"/>
-        <v>7.9872000000000005</v>
+        <v>17.118400000000001</v>
       </c>
       <c r="S109">
         <f t="shared" si="11"/>
-        <v>0.42347136044362294</v>
+        <v>0.36384920353982303</v>
       </c>
       <c r="T109">
         <f t="shared" si="12"/>
@@ -6737,21 +6930,21 @@
       </c>
       <c r="W109">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X109">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="Y109">
         <f t="shared" si="17"/>
-        <v>8.4106713604436241</v>
+        <v>29.732249203539823</v>
       </c>
       <c r="Z109">
-        <v>4321.0752000000002</v>
+        <v>1934.3792000000001</v>
       </c>
       <c r="AA109">
-        <v>229.098006</v>
+        <v>41.114960000000004</v>
       </c>
       <c r="AB109">
         <v>0</v>
@@ -6763,30 +6956,30 @@
         <v>0</v>
       </c>
       <c r="AE109">
-        <v>0</v>
+        <v>395.5</v>
       </c>
       <c r="AF109">
-        <v>0</v>
+        <v>988.75</v>
       </c>
       <c r="AG109">
         <f t="shared" si="18"/>
-        <v>4550.1732060000004</v>
+        <v>3359.7441600000002</v>
       </c>
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>62</v>
+      <c r="A110" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="C110">
-        <v>113</v>
+        <v>300</v>
       </c>
       <c r="R110">
         <f t="shared" si="10"/>
-        <v>17.118400000000001</v>
+        <v>8.6831999999999994</v>
       </c>
       <c r="S110">
         <f t="shared" si="11"/>
-        <v>0.36384920353982303</v>
+        <v>0.1558688</v>
       </c>
       <c r="T110">
         <f t="shared" si="12"/>
@@ -6802,21 +6995,21 @@
       </c>
       <c r="W110">
         <f t="shared" si="15"/>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X110">
         <f t="shared" si="16"/>
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="Y110">
         <f t="shared" si="17"/>
-        <v>29.732249203539823</v>
+        <v>8.8390687999999997</v>
       </c>
       <c r="Z110">
-        <v>1934.3792000000001</v>
+        <v>2604.96</v>
       </c>
       <c r="AA110">
-        <v>41.114960000000004</v>
+        <v>46.760640000000002</v>
       </c>
       <c r="AB110">
         <v>0</v>
@@ -6828,30 +7021,30 @@
         <v>0</v>
       </c>
       <c r="AE110">
-        <v>395.5</v>
+        <v>0</v>
       </c>
       <c r="AF110">
-        <v>988.75</v>
+        <v>0</v>
       </c>
       <c r="AG110">
         <f t="shared" si="18"/>
-        <v>3359.7441600000002</v>
+        <v>2651.72064</v>
       </c>
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C111">
         <v>300</v>
       </c>
       <c r="R111">
         <f t="shared" si="10"/>
-        <v>8.6831999999999994</v>
+        <v>8.4352</v>
       </c>
       <c r="S111">
         <f t="shared" si="11"/>
-        <v>0.1558688</v>
+        <v>0.20798040000000001</v>
       </c>
       <c r="T111">
         <f t="shared" si="12"/>
@@ -6867,21 +7060,21 @@
       </c>
       <c r="W111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X111">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="Y111">
         <f t="shared" si="17"/>
-        <v>8.8390687999999997</v>
+        <v>14.2781804</v>
       </c>
       <c r="Z111">
-        <v>2604.96</v>
+        <v>2530.56</v>
       </c>
       <c r="AA111">
-        <v>46.760640000000002</v>
+        <v>62.394120000000001</v>
       </c>
       <c r="AB111">
         <v>0</v>
@@ -6893,22 +7086,22 @@
         <v>0</v>
       </c>
       <c r="AE111">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="AF111">
-        <v>0</v>
+        <v>1207.5</v>
       </c>
       <c r="AG111">
         <f t="shared" si="18"/>
-        <v>2651.72064</v>
+        <v>4283.4541200000003</v>
       </c>
     </row>
     <row r="112" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>64</v>
+      <c r="A112" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="C112">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="R112">
         <f t="shared" si="10"/>
@@ -6932,21 +7125,21 @@
       </c>
       <c r="W112">
         <f t="shared" si="15"/>
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="X112">
         <f t="shared" si="16"/>
-        <v>4.0250000000000004</v>
+        <v>0</v>
       </c>
       <c r="Y112">
         <f t="shared" si="17"/>
-        <v>14.2781804</v>
+        <v>8.6431804000000003</v>
       </c>
       <c r="Z112">
-        <v>2530.56</v>
+        <v>4217.6000000000004</v>
       </c>
       <c r="AA112">
-        <v>62.394120000000001</v>
+        <v>103.9902</v>
       </c>
       <c r="AB112">
         <v>0</v>
@@ -6958,42 +7151,42 @@
         <v>0</v>
       </c>
       <c r="AE112">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="AF112">
-        <v>1207.5</v>
+        <v>0</v>
       </c>
       <c r="AG112">
         <f t="shared" si="18"/>
-        <v>4283.4541200000003</v>
+        <v>4321.5902000000006</v>
       </c>
     </row>
     <row r="113" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
-        <v>65</v>
+      <c r="A113" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C113">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="R113">
         <f t="shared" si="10"/>
-        <v>8.4352</v>
+        <v>0</v>
       </c>
       <c r="S113">
         <f t="shared" si="11"/>
-        <v>0.20798040000000001</v>
+        <v>0</v>
       </c>
       <c r="T113">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.13527799999999998</v>
       </c>
       <c r="U113">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.7315750000000003</v>
       </c>
       <c r="V113">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.72321700000000011</v>
       </c>
       <c r="W113">
         <f t="shared" si="15"/>
@@ -7005,22 +7198,22 @@
       </c>
       <c r="Y113">
         <f t="shared" si="17"/>
-        <v>8.6431804000000003</v>
+        <v>3.5900700000000003</v>
       </c>
       <c r="Z113">
-        <v>4217.6000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>103.9902</v>
+        <v>0</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>27.055599999999998</v>
       </c>
       <c r="AC113">
-        <v>0</v>
+        <v>546.31500000000005</v>
       </c>
       <c r="AD113">
-        <v>0</v>
+        <v>144.64340000000001</v>
       </c>
       <c r="AE113">
         <v>0</v>
@@ -7030,88 +7223,88 @@
       </c>
       <c r="AG113">
         <f t="shared" si="18"/>
-        <v>4321.5902000000006</v>
+        <v>718.01400000000012</v>
       </c>
     </row>
     <row r="114" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C114">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="R114">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>17.118400000000001</v>
       </c>
       <c r="S114">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.36384919540229882</v>
       </c>
       <c r="T114">
         <f t="shared" si="12"/>
-        <v>0.13527799999999998</v>
+        <v>0</v>
       </c>
       <c r="U114">
         <f t="shared" si="13"/>
-        <v>2.7315750000000003</v>
+        <v>0</v>
       </c>
       <c r="V114">
         <f t="shared" si="14"/>
-        <v>0.72321700000000011</v>
+        <v>0</v>
       </c>
       <c r="W114">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X114">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="Y114">
         <f t="shared" si="17"/>
-        <v>3.5900700000000003</v>
+        <v>29.7322491954023</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>1489.3008</v>
       </c>
       <c r="AA114">
-        <v>0</v>
+        <v>31.654879999999999</v>
       </c>
       <c r="AB114">
-        <v>27.055599999999998</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>546.31500000000005</v>
+        <v>0</v>
       </c>
       <c r="AD114">
-        <v>144.64340000000001</v>
+        <v>0</v>
       </c>
       <c r="AE114">
-        <v>0</v>
+        <v>304.5</v>
       </c>
       <c r="AF114">
-        <v>0</v>
+        <v>761.25</v>
       </c>
       <c r="AG114">
         <f t="shared" si="18"/>
-        <v>718.01400000000012</v>
+        <v>2586.70568</v>
       </c>
     </row>
     <row r="115" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>62</v>
+      <c r="A115" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="C115">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="R115">
         <f t="shared" si="10"/>
-        <v>17.118400000000001</v>
+        <v>8.6832000000000011</v>
       </c>
       <c r="S115">
         <f t="shared" si="11"/>
-        <v>0.36384919540229882</v>
+        <v>0.1558688</v>
       </c>
       <c r="T115">
         <f t="shared" si="12"/>
@@ -7127,21 +7320,21 @@
       </c>
       <c r="W115">
         <f t="shared" si="15"/>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="X115">
         <f t="shared" si="16"/>
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="Y115">
         <f t="shared" si="17"/>
-        <v>29.7322491954023</v>
+        <v>8.8390688000000015</v>
       </c>
       <c r="Z115">
-        <v>1489.3008</v>
+        <v>1736.64</v>
       </c>
       <c r="AA115">
-        <v>31.654879999999999</v>
+        <v>31.173760000000001</v>
       </c>
       <c r="AB115">
         <v>0</v>
@@ -7153,30 +7346,30 @@
         <v>0</v>
       </c>
       <c r="AE115">
-        <v>304.5</v>
+        <v>0</v>
       </c>
       <c r="AF115">
-        <v>761.25</v>
+        <v>0</v>
       </c>
       <c r="AG115">
         <f t="shared" si="18"/>
-        <v>2586.70568</v>
+        <v>1767.81376</v>
       </c>
     </row>
     <row r="116" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C116">
         <v>200</v>
       </c>
       <c r="R116">
         <f t="shared" si="10"/>
-        <v>8.6832000000000011</v>
+        <v>8.4352</v>
       </c>
       <c r="S116">
         <f t="shared" si="11"/>
-        <v>0.1558688</v>
+        <v>0.20798040000000001</v>
       </c>
       <c r="T116">
         <f t="shared" si="12"/>
@@ -7192,21 +7385,21 @@
       </c>
       <c r="W116">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X116">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="Y116">
         <f t="shared" si="17"/>
-        <v>8.8390688000000015</v>
+        <v>14.2781804</v>
       </c>
       <c r="Z116">
-        <v>1736.64</v>
+        <v>1687.04</v>
       </c>
       <c r="AA116">
-        <v>31.173760000000001</v>
+        <v>41.596080000000001</v>
       </c>
       <c r="AB116">
         <v>0</v>
@@ -7218,22 +7411,22 @@
         <v>0</v>
       </c>
       <c r="AE116">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="AF116">
-        <v>0</v>
+        <v>805</v>
       </c>
       <c r="AG116">
         <f t="shared" si="18"/>
-        <v>1767.81376</v>
+        <v>2855.6360800000002</v>
       </c>
     </row>
     <row r="117" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>64</v>
+      <c r="A117" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="C117">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="R117">
         <f t="shared" si="10"/>
@@ -7257,21 +7450,21 @@
       </c>
       <c r="W117">
         <f t="shared" si="15"/>
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="X117">
         <f t="shared" si="16"/>
-        <v>4.0250000000000004</v>
+        <v>0</v>
       </c>
       <c r="Y117">
         <f t="shared" si="17"/>
-        <v>14.2781804</v>
+        <v>8.6431804000000003</v>
       </c>
       <c r="Z117">
-        <v>1687.04</v>
+        <v>4217.6000000000004</v>
       </c>
       <c r="AA117">
-        <v>41.596080000000001</v>
+        <v>103.9902</v>
       </c>
       <c r="AB117">
         <v>0</v>
@@ -7283,30 +7476,30 @@
         <v>0</v>
       </c>
       <c r="AE117">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="AF117">
-        <v>805</v>
+        <v>0</v>
       </c>
       <c r="AG117">
         <f t="shared" si="18"/>
-        <v>2855.6360800000002</v>
+        <v>4321.5902000000006</v>
       </c>
     </row>
     <row r="118" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
-        <v>65</v>
+      <c r="A118" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C118">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="R118">
         <f t="shared" si="10"/>
-        <v>8.4352</v>
+        <v>7.5245500000000005</v>
       </c>
       <c r="S118">
         <f t="shared" si="11"/>
-        <v>0.20798040000000001</v>
+        <v>0</v>
       </c>
       <c r="T118">
         <f t="shared" si="12"/>
@@ -7330,13 +7523,13 @@
       </c>
       <c r="Y118">
         <f t="shared" si="17"/>
-        <v>8.6431804000000003</v>
+        <v>7.5245500000000005</v>
       </c>
       <c r="Z118">
-        <v>4217.6000000000004</v>
+        <v>1504.91</v>
       </c>
       <c r="AA118">
-        <v>103.9902</v>
+        <v>0</v>
       </c>
       <c r="AB118">
         <v>0</v>
@@ -7355,19 +7548,19 @@
       </c>
       <c r="AG118">
         <f t="shared" si="18"/>
-        <v>4321.5902000000006</v>
+        <v>1504.91</v>
       </c>
     </row>
     <row r="119" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C119">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="R119">
         <f t="shared" si="10"/>
-        <v>7.5245500000000005</v>
+        <v>0</v>
       </c>
       <c r="S119">
         <f t="shared" si="11"/>
@@ -7375,60 +7568,60 @@
       </c>
       <c r="T119">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.255745695652174</v>
       </c>
       <c r="U119">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.5792287282608695</v>
       </c>
       <c r="V119">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-2.2718055108695649</v>
       </c>
       <c r="W119">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.71589000000000003</v>
       </c>
       <c r="X119">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1.789725</v>
       </c>
       <c r="Y119">
         <f t="shared" si="17"/>
-        <v>7.5245500000000005</v>
+        <v>4.068783913043478</v>
       </c>
       <c r="Z119">
-        <v>1504.91</v>
+        <v>0</v>
       </c>
       <c r="AA119">
         <v>0</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>115.528604</v>
       </c>
       <c r="AC119">
-        <v>0</v>
+        <v>237.28904299999999</v>
       </c>
       <c r="AD119">
-        <v>0</v>
+        <v>-209.00610699999999</v>
       </c>
       <c r="AE119">
-        <v>0</v>
+        <v>65.861879999999999</v>
       </c>
       <c r="AF119">
-        <v>0</v>
+        <v>164.65469999999999</v>
       </c>
       <c r="AG119">
         <f t="shared" si="18"/>
-        <v>1504.91</v>
+        <v>374.32811999999996</v>
       </c>
     </row>
     <row r="120" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>68</v>
+      <c r="A120" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="C120">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="R120">
         <f t="shared" si="10"/>
@@ -7440,27 +7633,27 @@
       </c>
       <c r="T120">
         <f t="shared" si="12"/>
-        <v>1.255745695652174</v>
+        <v>1.253441</v>
       </c>
       <c r="U120">
         <f t="shared" si="13"/>
-        <v>2.5792287282608695</v>
+        <v>2.5744950000000002</v>
       </c>
       <c r="V120">
         <f t="shared" si="14"/>
-        <v>-2.2718055108695649</v>
+        <v>-2.267636</v>
       </c>
       <c r="W120">
         <f t="shared" si="15"/>
-        <v>0.71589000000000003</v>
+        <v>0</v>
       </c>
       <c r="X120">
         <f t="shared" si="16"/>
-        <v>1.789725</v>
+        <v>0</v>
       </c>
       <c r="Y120">
         <f t="shared" si="17"/>
-        <v>4.068783913043478</v>
+        <v>1.5603000000000002</v>
       </c>
       <c r="Z120">
         <v>0</v>
@@ -7469,23 +7662,23 @@
         <v>0</v>
       </c>
       <c r="AB120">
-        <v>115.528604</v>
+        <v>11.280969000000001</v>
       </c>
       <c r="AC120">
-        <v>237.28904299999999</v>
+        <v>23.170455</v>
       </c>
       <c r="AD120">
-        <v>-209.00610699999999</v>
+        <v>-20.408723999999999</v>
       </c>
       <c r="AE120">
-        <v>65.861879999999999</v>
+        <v>0</v>
       </c>
       <c r="AF120">
-        <v>164.65469999999999</v>
+        <v>0</v>
       </c>
       <c r="AG120">
         <f t="shared" si="18"/>
-        <v>374.32811999999996</v>
+        <v>14.042700000000004</v>
       </c>
     </row>
     <row r="121" spans="1:33" x14ac:dyDescent="0.25">
@@ -7493,7 +7686,7 @@
         <v>69</v>
       </c>
       <c r="C121">
-        <v>9</v>
+        <v>197</v>
       </c>
       <c r="R121">
         <f t="shared" si="10"/>
@@ -7505,15 +7698,15 @@
       </c>
       <c r="T121">
         <f t="shared" si="12"/>
-        <v>1.253441</v>
+        <v>1.2558510000000001</v>
       </c>
       <c r="U121">
         <f t="shared" si="13"/>
-        <v>2.5744950000000002</v>
+        <v>2.5794450000000002</v>
       </c>
       <c r="V121">
         <f t="shared" si="14"/>
-        <v>-2.267636</v>
+        <v>-2.2719960000000001</v>
       </c>
       <c r="W121">
         <f t="shared" si="15"/>
@@ -7525,7 +7718,7 @@
       </c>
       <c r="Y121">
         <f t="shared" si="17"/>
-        <v>1.5603000000000002</v>
+        <v>1.5633000000000004</v>
       </c>
       <c r="Z121">
         <v>0</v>
@@ -7534,13 +7727,13 @@
         <v>0</v>
       </c>
       <c r="AB121">
-        <v>11.280969000000001</v>
+        <v>247.402647</v>
       </c>
       <c r="AC121">
-        <v>23.170455</v>
+        <v>508.150665</v>
       </c>
       <c r="AD121">
-        <v>-20.408723999999999</v>
+        <v>-447.583212</v>
       </c>
       <c r="AE121">
         <v>0</v>
@@ -7550,15 +7743,15 @@
       </c>
       <c r="AG121">
         <f t="shared" si="18"/>
-        <v>14.042700000000004</v>
+        <v>307.9701</v>
       </c>
     </row>
     <row r="122" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>69</v>
+      <c r="A122" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C122">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="R122">
         <f t="shared" si="10"/>
@@ -7570,27 +7763,27 @@
       </c>
       <c r="T122">
         <f t="shared" si="12"/>
-        <v>1.2558510000000001</v>
+        <v>1.2613939999999999</v>
       </c>
       <c r="U122">
         <f t="shared" si="13"/>
-        <v>2.5794450000000002</v>
+        <v>2.59083</v>
       </c>
       <c r="V122">
         <f t="shared" si="14"/>
-        <v>-2.2719960000000001</v>
+        <v>-2.2820240000000003</v>
       </c>
       <c r="W122">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.71589000000000003</v>
       </c>
       <c r="X122">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1.789725</v>
       </c>
       <c r="Y122">
         <f t="shared" si="17"/>
-        <v>1.5633000000000004</v>
+        <v>4.0758149999999995</v>
       </c>
       <c r="Z122">
         <v>0</v>
@@ -7599,31 +7792,31 @@
         <v>0</v>
       </c>
       <c r="AB122">
-        <v>247.402647</v>
+        <v>136.23055199999999</v>
       </c>
       <c r="AC122">
-        <v>508.150665</v>
+        <v>279.80964</v>
       </c>
       <c r="AD122">
-        <v>-447.583212</v>
+        <v>-246.45859200000001</v>
       </c>
       <c r="AE122">
-        <v>0</v>
+        <v>77.316119999999998</v>
       </c>
       <c r="AF122">
-        <v>0</v>
+        <v>193.2903</v>
       </c>
       <c r="AG122">
         <f t="shared" si="18"/>
-        <v>307.9701</v>
+        <v>440.18801999999999</v>
       </c>
     </row>
     <row r="123" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>68</v>
+      <c r="A123" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="C123">
-        <v>108</v>
+        <v>300</v>
       </c>
       <c r="R123">
         <f t="shared" si="10"/>
@@ -7635,7 +7828,7 @@
       </c>
       <c r="T123">
         <f t="shared" si="12"/>
-        <v>1.2613939999999999</v>
+        <v>1.2613940000000001</v>
       </c>
       <c r="U123">
         <f t="shared" si="13"/>
@@ -7647,15 +7840,15 @@
       </c>
       <c r="W123">
         <f t="shared" si="15"/>
-        <v>0.71589000000000003</v>
+        <v>0</v>
       </c>
       <c r="X123">
         <f t="shared" si="16"/>
-        <v>1.789725</v>
+        <v>0</v>
       </c>
       <c r="Y123">
         <f t="shared" si="17"/>
-        <v>4.0758149999999995</v>
+        <v>1.5701999999999998</v>
       </c>
       <c r="Z123">
         <v>0</v>
@@ -7664,31 +7857,31 @@
         <v>0</v>
       </c>
       <c r="AB123">
-        <v>136.23055199999999</v>
+        <v>378.41820000000001</v>
       </c>
       <c r="AC123">
-        <v>279.80964</v>
+        <v>777.24900000000002</v>
       </c>
       <c r="AD123">
-        <v>-246.45859200000001</v>
+        <v>-684.60720000000003</v>
       </c>
       <c r="AE123">
-        <v>77.316119999999998</v>
+        <v>0</v>
       </c>
       <c r="AF123">
-        <v>193.2903</v>
+        <v>0</v>
       </c>
       <c r="AG123">
         <f t="shared" si="18"/>
-        <v>440.18801999999999</v>
+        <v>471.06000000000006</v>
       </c>
     </row>
     <row r="124" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>69</v>
+      <c r="A124" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C124">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R124">
         <f t="shared" si="10"/>
@@ -7700,15 +7893,15 @@
       </c>
       <c r="T124">
         <f t="shared" si="12"/>
-        <v>1.2613940000000001</v>
+        <v>0.25679999999999997</v>
       </c>
       <c r="U124">
         <f t="shared" si="13"/>
-        <v>2.59083</v>
+        <v>1.319952</v>
       </c>
       <c r="V124">
         <f t="shared" si="14"/>
-        <v>-2.2820240000000003</v>
+        <v>1.2994079999999999</v>
       </c>
       <c r="W124">
         <f t="shared" si="15"/>
@@ -7720,7 +7913,7 @@
       </c>
       <c r="Y124">
         <f t="shared" si="17"/>
-        <v>1.5701999999999998</v>
+        <v>2.8761599999999996</v>
       </c>
       <c r="Z124">
         <v>0</v>
@@ -7729,13 +7922,13 @@
         <v>0</v>
       </c>
       <c r="AB124">
-        <v>378.41820000000001</v>
+        <v>51.36</v>
       </c>
       <c r="AC124">
-        <v>777.24900000000002</v>
+        <v>263.99040000000002</v>
       </c>
       <c r="AD124">
-        <v>-684.60720000000003</v>
+        <v>259.88159999999999</v>
       </c>
       <c r="AE124">
         <v>0</v>
@@ -7745,19 +7938,19 @@
       </c>
       <c r="AG124">
         <f t="shared" si="18"/>
-        <v>471.06000000000006</v>
+        <v>575.23199999999997</v>
       </c>
     </row>
     <row r="125" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C125">
         <v>200</v>
       </c>
       <c r="R125">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>38.577033</v>
       </c>
       <c r="S125">
         <f t="shared" si="11"/>
@@ -7765,15 +7958,15 @@
       </c>
       <c r="T125">
         <f t="shared" si="12"/>
-        <v>0.25679999999999997</v>
+        <v>0</v>
       </c>
       <c r="U125">
         <f t="shared" si="13"/>
-        <v>1.319952</v>
+        <v>0</v>
       </c>
       <c r="V125">
         <f t="shared" si="14"/>
-        <v>1.2994079999999999</v>
+        <v>0</v>
       </c>
       <c r="W125">
         <f t="shared" si="15"/>
@@ -7785,22 +7978,22 @@
       </c>
       <c r="Y125">
         <f t="shared" si="17"/>
-        <v>2.8761599999999996</v>
+        <v>38.577033</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>7715.4066000000003</v>
       </c>
       <c r="AA125">
         <v>0</v>
       </c>
       <c r="AB125">
-        <v>51.36</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>263.99040000000002</v>
+        <v>0</v>
       </c>
       <c r="AD125">
-        <v>259.88159999999999</v>
+        <v>0</v>
       </c>
       <c r="AE125">
         <v>0</v>
@@ -7810,23 +8003,23 @@
       </c>
       <c r="AG125">
         <f t="shared" si="18"/>
-        <v>575.23199999999997</v>
+        <v>7715.4066000000003</v>
       </c>
     </row>
     <row r="126" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C126">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="R126">
         <f t="shared" si="10"/>
-        <v>38.577033</v>
+        <v>4.032</v>
       </c>
       <c r="S126">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.93995999999999991</v>
       </c>
       <c r="T126">
         <f t="shared" si="12"/>
@@ -7850,13 +8043,13 @@
       </c>
       <c r="Y126">
         <f t="shared" si="17"/>
-        <v>38.577033</v>
+        <v>4.9719600000000002</v>
       </c>
       <c r="Z126">
-        <v>7715.4066000000003</v>
+        <v>483.84</v>
       </c>
       <c r="AA126">
-        <v>0</v>
+        <v>112.79519999999999</v>
       </c>
       <c r="AB126">
         <v>0</v>
@@ -7875,7 +8068,7 @@
       </c>
       <c r="AG126">
         <f t="shared" si="18"/>
-        <v>7715.4066000000003</v>
+        <v>596.63519999999994</v>
       </c>
     </row>
     <row r="127" spans="1:33" x14ac:dyDescent="0.25">
@@ -7883,15 +8076,15 @@
         <v>72</v>
       </c>
       <c r="C127">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="R127">
         <f t="shared" si="10"/>
-        <v>4.032</v>
+        <v>4.1760000000000002</v>
       </c>
       <c r="S127">
         <f t="shared" si="11"/>
-        <v>0.93995999999999991</v>
+        <v>0.42657840000000002</v>
       </c>
       <c r="T127">
         <f t="shared" si="12"/>
@@ -7915,13 +8108,13 @@
       </c>
       <c r="Y127">
         <f t="shared" si="17"/>
-        <v>4.9719600000000002</v>
+        <v>4.6025784000000005</v>
       </c>
       <c r="Z127">
-        <v>483.84</v>
+        <v>334.08</v>
       </c>
       <c r="AA127">
-        <v>112.79519999999999</v>
+        <v>34.126272</v>
       </c>
       <c r="AB127">
         <v>0</v>
@@ -7940,15 +8133,15 @@
       </c>
       <c r="AG127">
         <f t="shared" si="18"/>
-        <v>596.63519999999994</v>
+        <v>368.20627200000001</v>
       </c>
     </row>
     <row r="128" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C128">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="R128">
         <f t="shared" si="10"/>
@@ -7956,7 +8149,7 @@
       </c>
       <c r="S128">
         <f t="shared" si="11"/>
-        <v>0.42657840000000002</v>
+        <v>0.85326120000000005</v>
       </c>
       <c r="T128">
         <f t="shared" si="12"/>
@@ -7980,13 +8173,13 @@
       </c>
       <c r="Y128">
         <f t="shared" si="17"/>
-        <v>4.6025784000000005</v>
+        <v>5.0292612000000005</v>
       </c>
       <c r="Z128">
-        <v>334.08</v>
+        <v>835.2</v>
       </c>
       <c r="AA128">
-        <v>34.126272</v>
+        <v>170.65224000000001</v>
       </c>
       <c r="AB128">
         <v>0</v>
@@ -8005,23 +8198,23 @@
       </c>
       <c r="AG128">
         <f t="shared" si="18"/>
-        <v>368.20627200000001</v>
+        <v>1005.8522400000001</v>
       </c>
     </row>
     <row r="129" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C129">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R129">
         <f t="shared" si="10"/>
-        <v>4.1760000000000002</v>
+        <v>4.6751100000000001</v>
       </c>
       <c r="S129">
         <f t="shared" si="11"/>
-        <v>0.85326120000000005</v>
+        <v>0.15995914</v>
       </c>
       <c r="T129">
         <f t="shared" si="12"/>
@@ -8045,13 +8238,13 @@
       </c>
       <c r="Y129">
         <f t="shared" si="17"/>
-        <v>5.0292612000000005</v>
+        <v>4.8350691399999999</v>
       </c>
       <c r="Z129">
-        <v>835.2</v>
+        <v>1870.0440000000001</v>
       </c>
       <c r="AA129">
-        <v>170.65224000000001</v>
+        <v>63.983656000000003</v>
       </c>
       <c r="AB129">
         <v>0</v>
@@ -8070,23 +8263,23 @@
       </c>
       <c r="AG129">
         <f t="shared" si="18"/>
-        <v>1005.8522400000001</v>
+        <v>1934.0276560000002</v>
       </c>
     </row>
     <row r="130" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C130">
         <v>400</v>
       </c>
       <c r="R130">
         <f t="shared" si="10"/>
-        <v>4.6751100000000001</v>
+        <v>0.99009000000000003</v>
       </c>
       <c r="S130">
         <f t="shared" si="11"/>
-        <v>0.15995914</v>
+        <v>4.8722849999999998E-2</v>
       </c>
       <c r="T130">
         <f t="shared" si="12"/>
@@ -8110,13 +8303,13 @@
       </c>
       <c r="Y130">
         <f t="shared" si="17"/>
-        <v>4.8350691399999999</v>
+        <v>1.03881285</v>
       </c>
       <c r="Z130">
-        <v>1870.0440000000001</v>
+        <v>396.036</v>
       </c>
       <c r="AA130">
-        <v>63.983656000000003</v>
+        <v>19.489139999999999</v>
       </c>
       <c r="AB130">
         <v>0</v>
@@ -8135,23 +8328,23 @@
       </c>
       <c r="AG130">
         <f t="shared" si="18"/>
-        <v>1934.0276560000002</v>
+        <v>415.52514000000002</v>
       </c>
     </row>
     <row r="131" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C131">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="R131">
         <f t="shared" si="10"/>
-        <v>0.99009000000000003</v>
+        <v>5.6641750000000002</v>
       </c>
       <c r="S131">
         <f t="shared" si="11"/>
-        <v>4.8722849999999998E-2</v>
+        <v>1.81005957</v>
       </c>
       <c r="T131">
         <f t="shared" si="12"/>
@@ -8175,13 +8368,13 @@
       </c>
       <c r="Y131">
         <f t="shared" si="17"/>
-        <v>1.03881285</v>
+        <v>7.4742345700000001</v>
       </c>
       <c r="Z131">
-        <v>396.036</v>
+        <v>1132.835</v>
       </c>
       <c r="AA131">
-        <v>19.489139999999999</v>
+        <v>362.01191399999999</v>
       </c>
       <c r="AB131">
         <v>0</v>
@@ -8200,12 +8393,12 @@
       </c>
       <c r="AG131">
         <f t="shared" si="18"/>
-        <v>415.52514000000002</v>
+        <v>1494.846914</v>
       </c>
     </row>
     <row r="132" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C132">
         <v>200</v>
@@ -8216,7 +8409,7 @@
       </c>
       <c r="S132">
         <f t="shared" si="11"/>
-        <v>1.81005957</v>
+        <v>6.4597939999999993E-2</v>
       </c>
       <c r="T132">
         <f t="shared" si="12"/>
@@ -8240,13 +8433,13 @@
       </c>
       <c r="Y132">
         <f t="shared" si="17"/>
-        <v>7.4742345700000001</v>
+        <v>5.7287729399999998</v>
       </c>
       <c r="Z132">
         <v>1132.835</v>
       </c>
       <c r="AA132">
-        <v>362.01191399999999</v>
+        <v>12.919587999999999</v>
       </c>
       <c r="AB132">
         <v>0</v>
@@ -8265,23 +8458,23 @@
       </c>
       <c r="AG132">
         <f t="shared" si="18"/>
-        <v>1494.846914</v>
+        <v>1145.754588</v>
       </c>
     </row>
     <row r="133" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C133">
         <v>200</v>
       </c>
       <c r="R133">
         <f t="shared" si="10"/>
-        <v>5.6641750000000002</v>
+        <v>1.02376</v>
       </c>
       <c r="S133">
         <f t="shared" si="11"/>
-        <v>6.4597939999999993E-2</v>
+        <v>0</v>
       </c>
       <c r="T133">
         <f t="shared" si="12"/>
@@ -8305,13 +8498,13 @@
       </c>
       <c r="Y133">
         <f t="shared" si="17"/>
-        <v>5.7287729399999998</v>
+        <v>1.02376</v>
       </c>
       <c r="Z133">
-        <v>1132.835</v>
+        <v>204.75200000000001</v>
       </c>
       <c r="AA133">
-        <v>12.919587999999999</v>
+        <v>0</v>
       </c>
       <c r="AB133">
         <v>0</v>
@@ -8330,19 +8523,19 @@
       </c>
       <c r="AG133">
         <f t="shared" si="18"/>
-        <v>1145.754588</v>
+        <v>204.75200000000001</v>
       </c>
     </row>
     <row r="134" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C134">
         <v>200</v>
       </c>
       <c r="R134">
         <f t="shared" si="10"/>
-        <v>1.02376</v>
+        <v>1.242</v>
       </c>
       <c r="S134">
         <f t="shared" si="11"/>
@@ -8370,10 +8563,10 @@
       </c>
       <c r="Y134">
         <f t="shared" si="17"/>
-        <v>1.02376</v>
+        <v>1.242</v>
       </c>
       <c r="Z134">
-        <v>204.75200000000001</v>
+        <v>248.4</v>
       </c>
       <c r="AA134">
         <v>0</v>
@@ -8395,19 +8588,19 @@
       </c>
       <c r="AG134">
         <f t="shared" si="18"/>
-        <v>204.75200000000001</v>
+        <v>248.4</v>
       </c>
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="C135">
         <v>200</v>
       </c>
       <c r="R135">
         <f t="shared" si="10"/>
-        <v>1.242</v>
+        <v>9.1818000000000011E-2</v>
       </c>
       <c r="S135">
         <f t="shared" si="11"/>
@@ -8435,10 +8628,10 @@
       </c>
       <c r="Y135">
         <f t="shared" si="17"/>
-        <v>1.242</v>
+        <v>9.1818000000000011E-2</v>
       </c>
       <c r="Z135">
-        <v>248.4</v>
+        <v>18.363600000000002</v>
       </c>
       <c r="AA135">
         <v>0</v>
@@ -8460,19 +8653,19 @@
       </c>
       <c r="AG135">
         <f t="shared" si="18"/>
-        <v>248.4</v>
+        <v>18.363600000000002</v>
       </c>
     </row>
     <row r="136" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C136">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="R136">
         <f t="shared" si="10"/>
-        <v>9.1818000000000011E-2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="S136">
         <f t="shared" si="11"/>
@@ -8500,10 +8693,10 @@
       </c>
       <c r="Y136">
         <f t="shared" si="17"/>
-        <v>9.1818000000000011E-2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Z136">
-        <v>18.363600000000002</v>
+        <v>184</v>
       </c>
       <c r="AA136">
         <v>0</v>
@@ -8525,7 +8718,7 @@
       </c>
       <c r="AG136">
         <f t="shared" si="18"/>
-        <v>18.363600000000002</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" spans="1:33" x14ac:dyDescent="0.25">
@@ -8533,7 +8726,7 @@
         <v>79</v>
       </c>
       <c r="C137">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="R137">
         <f t="shared" si="10"/>
@@ -8568,7 +8761,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Z137">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="AA137">
         <v>0</v>
@@ -8590,19 +8783,19 @@
       </c>
       <c r="AG137">
         <f t="shared" si="18"/>
-        <v>184</v>
+        <v>276</v>
       </c>
     </row>
     <row r="138" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C138">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="R138">
         <f t="shared" si="10"/>
-        <v>2.2999999999999998</v>
+        <v>9.5259999999999998</v>
       </c>
       <c r="S138">
         <f t="shared" si="11"/>
@@ -8630,10 +8823,10 @@
       </c>
       <c r="Y138">
         <f t="shared" si="17"/>
-        <v>2.2999999999999998</v>
+        <v>9.5259999999999998</v>
       </c>
       <c r="Z138">
-        <v>276</v>
+        <v>190.52</v>
       </c>
       <c r="AA138">
         <v>0</v>
@@ -8655,19 +8848,19 @@
       </c>
       <c r="AG138">
         <f t="shared" si="18"/>
-        <v>276</v>
+        <v>190.52</v>
       </c>
     </row>
     <row r="139" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C139">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="R139">
         <f t="shared" si="10"/>
-        <v>9.5259999999999998</v>
+        <v>0.3876</v>
       </c>
       <c r="S139">
         <f t="shared" si="11"/>
@@ -8687,18 +8880,18 @@
       </c>
       <c r="W139">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.5441180000000001</v>
       </c>
       <c r="X139">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3.8602949999999998</v>
       </c>
       <c r="Y139">
         <f t="shared" si="17"/>
-        <v>9.5259999999999998</v>
+        <v>5.7920129999999999</v>
       </c>
       <c r="Z139">
-        <v>190.52</v>
+        <v>77.52</v>
       </c>
       <c r="AA139">
         <v>0</v>
@@ -8713,26 +8906,26 @@
         <v>0</v>
       </c>
       <c r="AE139">
-        <v>0</v>
+        <v>308.8236</v>
       </c>
       <c r="AF139">
-        <v>0</v>
+        <v>772.05899999999997</v>
       </c>
       <c r="AG139">
         <f t="shared" si="18"/>
-        <v>190.52</v>
+        <v>1158.4025999999999</v>
       </c>
     </row>
     <row r="140" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
-        <v>81</v>
+      <c r="A140" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C140">
-        <v>200</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="R140">
         <f t="shared" si="10"/>
-        <v>0.3876</v>
+        <v>2280</v>
       </c>
       <c r="S140">
         <f t="shared" si="11"/>
@@ -8752,18 +8945,18 @@
       </c>
       <c r="W140">
         <f t="shared" si="15"/>
-        <v>1.5441180000000001</v>
+        <v>0</v>
       </c>
       <c r="X140">
         <f t="shared" si="16"/>
-        <v>3.8602949999999998</v>
+        <v>0</v>
       </c>
       <c r="Y140">
         <f t="shared" si="17"/>
-        <v>5.7920129999999999</v>
+        <v>2280</v>
       </c>
       <c r="Z140">
-        <v>77.52</v>
+        <v>116.28</v>
       </c>
       <c r="AA140">
         <v>0</v>
@@ -8778,26 +8971,26 @@
         <v>0</v>
       </c>
       <c r="AE140">
-        <v>308.8236</v>
+        <v>0</v>
       </c>
       <c r="AF140">
-        <v>772.05899999999997</v>
+        <v>0</v>
       </c>
       <c r="AG140">
         <f t="shared" si="18"/>
-        <v>1158.4025999999999</v>
+        <v>116.28</v>
       </c>
     </row>
     <row r="141" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>82</v>
+      <c r="A141" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C141">
-        <v>5.0999999999999997E-2</v>
+        <v>84</v>
       </c>
       <c r="R141">
         <f t="shared" si="10"/>
-        <v>2280</v>
+        <v>0.2</v>
       </c>
       <c r="S141">
         <f t="shared" si="11"/>
@@ -8825,10 +9018,10 @@
       </c>
       <c r="Y141">
         <f t="shared" si="17"/>
-        <v>2280</v>
+        <v>0.2</v>
       </c>
       <c r="Z141">
-        <v>116.28</v>
+        <v>16.8</v>
       </c>
       <c r="AA141">
         <v>0</v>
@@ -8850,15 +9043,15 @@
       </c>
       <c r="AG141">
         <f t="shared" si="18"/>
-        <v>116.28</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="142" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
-        <v>83</v>
+      <c r="A142" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="C142">
-        <v>84</v>
+        <v>288</v>
       </c>
       <c r="R142">
         <f t="shared" si="10"/>
@@ -8893,7 +9086,7 @@
         <v>0.2</v>
       </c>
       <c r="Z142">
-        <v>16.8</v>
+        <v>57.6</v>
       </c>
       <c r="AA142">
         <v>0</v>
@@ -8915,19 +9108,19 @@
       </c>
       <c r="AG142">
         <f t="shared" si="18"/>
-        <v>16.8</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="143" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
-        <v>84</v>
+      <c r="A143" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C143">
-        <v>288</v>
+        <v>136</v>
       </c>
       <c r="R143">
         <f t="shared" si="10"/>
-        <v>0.2</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="S143">
         <f t="shared" si="11"/>
@@ -8955,10 +9148,10 @@
       </c>
       <c r="Y143">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="Z143">
-        <v>57.6</v>
+        <v>27.2</v>
       </c>
       <c r="AA143">
         <v>0</v>
@@ -8980,15 +9173,15 @@
       </c>
       <c r="AG143">
         <f t="shared" si="18"/>
-        <v>57.6</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="144" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
-        <v>83</v>
+      <c r="A144" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="C144">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="R144">
         <f t="shared" si="10"/>
@@ -9023,7 +9216,7 @@
         <v>0.19999999999999998</v>
       </c>
       <c r="Z144">
-        <v>27.2</v>
+        <v>38.4</v>
       </c>
       <c r="AA144">
         <v>0</v>
@@ -9044,71 +9237,6 @@
         <v>0</v>
       </c>
       <c r="AG144">
-        <f t="shared" si="18"/>
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C145">
-        <v>192</v>
-      </c>
-      <c r="R145">
-        <f t="shared" si="10"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="S145">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T145">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U145">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V145">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W145">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="X145">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Y145">
-        <f t="shared" si="17"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="Z145">
-        <v>38.4</v>
-      </c>
-      <c r="AA145">
-        <v>0</v>
-      </c>
-      <c r="AB145">
-        <v>0</v>
-      </c>
-      <c r="AC145">
-        <v>0</v>
-      </c>
-      <c r="AD145">
-        <v>0</v>
-      </c>
-      <c r="AE145">
-        <v>0</v>
-      </c>
-      <c r="AF145">
-        <v>0</v>
-      </c>
-      <c r="AG145">
         <f t="shared" si="18"/>
         <v>38.4</v>
       </c>
